--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/dense_analysis_results_multi_lang.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/dense_analysis_results_multi_lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_3_dense_analysis_specter_embed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE5FE2-B4E0-DB43-A108-ED549183BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CF65B-9AF6-9B46-B732-9C8A61F0C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="107">
   <si>
     <t>Query</t>
   </si>
@@ -43,573 +43,619 @@
     <t>Faithfulness score</t>
   </si>
   <si>
+    <t>Documents score</t>
+  </si>
+  <si>
     <t>Response</t>
   </si>
   <si>
     <t>which studies examined the abstract in metadata?</t>
   </si>
   <si>
+    <t>[(0.7819186449050903, '10.31222/osf.io/smxe5'), (0.7664575576782227, '10.48550/arXiv.2406.15154'), (0.7382522821426392, '10.5860/crl.86.1.101'), (0.736821174621582, '10.1162/qss_a_00212'), (0.7344280481338501, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
     <t>**Summary answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and others.  
-DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance the openness of bibliographic metadata.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
 DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how cultural meanings and community practices influence metadata consistency and completeness.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including the availability of abstracts, as part of broader bibliographic data analysis.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses document coverage and metadata quality, including the presence and accuracy of abstracts.  
-**Concluding statement:** These studies collectively highlight the importance of abstracts in metadata for scholarly communication, emphasizing the need for improved availability, consistency, and quality across different bibliographic databases.</t>
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how sociocultural factors and resource constraints impact metadata consistency and completeness across different communities.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of its analysis of open data infrastructures.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses document coverage and metadata quality, including the availability and accuracy of abstracts.  
+**Concluding statement:** These studies collectively highlight the importance of abstracts in metadata for discovery and access, while also revealing variations in availability, quality, and classification across different bibliographic databases and publishers.</t>
   </si>
   <si>
     <t>which studies examined citations?</t>
   </si>
   <si>
+    <t>[(0.7389521598815918, '10.48550/arXiv.2406.15154'), (0.72257399559021, '10.31222/osf.io/smxe5'), (0.7020919322967529, '10.1162/qss_a_00112'), (0.6987808346748352, '10.1162/qss_a_00212'), (0.6616437435150146, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
     <t>Summary answer: Several studies have examined citations and bibliographic data sources, focusing on coverage, metadata quality, and citation link accuracy.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - The research evaluates the availability of bibliographic metadata elements in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of metadata.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines document coverage, citation link completeness, and accuracy, discussing strengths and weaknesses of each data source.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, this study compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring tensions between standardized systems and sociocultural representations in metadata creation and impact.  
-Concluding statement: These studies collectively underscore the importance of comprehensive and accurate bibliographic data for effective citation analysis, highlighting challenges in metadata availability, quality, and cross-database consistency.</t>
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, CrossRef, and Microsoft Academic examines document coverage and citation link completeness and accuracy, providing insights into the strengths and weaknesses of these data sources for citation analysis.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of bibliographic metadata elements in Crossref, including reference lists, which are crucial for citation tracking, and notes improvements over time but identifies areas for further publisher efforts.  
+Concluding statement: These studies collectively underscore the importance of understanding the nuances of bibliographic data sources and metadata quality for accurate and comprehensive citation analysis.</t>
   </si>
   <si>
     <t>Tell me about OpenAlex.</t>
   </si>
   <si>
-    <t>**Summary Answer:** OpenAlex is an increasingly important, free alternative to proprietary bibliometric databases, offering comprehensive coverage of publication and document types, though it faces challenges in metadata quality and consistency compared to established providers like Scopus and Web of Science.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases, highlighting its growing significance as a free resource for bibliometric analyses. It notes that OpenAlex’s publication and document types differ from proprietary databases, emphasizing its unique coverage and potential for libraries and universities.  
-DOI: 10.1162/qss_a_00212 - While not directly about OpenAlex, this study underscores the importance of open data infrastructures like Crossref, which OpenAlex leverages. It highlights challenges in funding data availability and quality, areas where OpenAlex could contribute to improvements.  
-DOI: 10.31222/osf.io/smxe5 - This document discusses Crossref’s role in promoting open bibliographic metadata, a foundation for OpenAlex. It highlights improvements in metadata availability but notes that publishers need to enhance openness, which OpenAlex aims to address.  
-**Concluding Statement:** OpenAlex is a valuable open-access resource for bibliometric research, offering distinct advantages in coverage and accessibility, though ongoing efforts are needed to address metadata quality and consistency to fully compete with proprietary databases.</t>
+    <t>[(0.7721837759017944, '10.31222/osf.io/smxe5'), (0.7542930841445923, '10.1162/qss_a_00212'), (0.7423064708709717, '10.48550/arXiv.2406.15154'), (0.7348348498344421, '10.5860/crl.86.1.101'), (0.7195353507995605, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage of publication and document types, noting that typologies and classifications can vary significantly across databases, which impacts bibliometric research.  
+DOI: 10.1162/qss_a_00212 - While not directly about OpenAlex, this study underscores the importance of open data infrastructures like Crossref in improving funding data availability, a feature relevant to OpenAlex's mission of open bibliographic metadata.  
+**Concluding Statement:** OpenAlex stands out as a vital open-access resource for academic research, offering comprehensive bibliographic data that complements and challenges proprietary databases, though its full potential depends on continued efforts to enhance metadata quality and coverage.</t>
   </si>
   <si>
     <t>Tell me about Crossref.</t>
+  </si>
+  <si>
+    <t>[(0.7865017652511597, '10.31222/osf.io/smxe5'), (0.7496131658554077, '10.1162/qss_a_00212'), (0.7468574643135071, '10.5860/crl.86.1.101'), (0.7316847443580627, '10.1162/qss_a_00112'), (0.7292193174362183, '10.48550/arXiv.2406.15154')]</t>
   </si>
   <si>
     <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality, particularly for funding information, vary and require improvement.  
 DOI: 10.31222/osf.io/smxe5 - Crossref promotes open availability of bibliographic metadata, with improvements over time in elements like reference lists, abstracts, and ORCIDs, but many publishers still need to enhance full openness.  
 DOI: 10.1162/qss_a_00212 - Analysis of Crossref's funding data for COVID-19 research reveals limited coverage and quality issues, with recommendations for improving open availability.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from tensions between sociocultural representations, resource constraints, and standardized systems, impacting discovery and access.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref's strengths and weaknesses, emphasizing the need for comprehensive coverage and flexible filtering.  
-DOI: 10.48550/arXiv.2406.15154 - Crossref's document and publication types differ from other databases, affecting bibliometric analysis, with OpenAlex emerging as a free alternative.  
-**Concluding Statement:** While Crossref plays a vital role in open bibliographic metadata, ongoing efforts are needed to address gaps in coverage, data quality, and standardization to maximize its utility for scholarly research.</t>
+DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are critical for discovery and access, but sociocultural and resource constraints create tensions that impact metadata accuracy.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in coverage, citation accuracy, and flexibility for literature selection.  
+DOI: 10.48550/arXiv.2406.15154 - Crossref is compared with other databases like OpenAlex and Scopus, showing variations in document typologies and classification, which affect bibliometric analysis.  
+**Concluding Statement:** While Crossref plays a vital role in open bibliographic metadata, ongoing efforts are needed to address gaps in coverage, data quality, and standardization to fully realize its potential for scholarly research.</t>
   </si>
   <si>
     <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
   </si>
   <si>
-    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of coverage, metadata availability, and quality across platforms like Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
+    <t>[(0.8135093450546265, '10.48550/arXiv.2406.15154'), (0.7999155521392822, '10.31222/osf.io/smxe5'), (0.7726414203643799, '10.1162/qss_a_00112'), (0.7585159540176392, '10.5860/crl.86.1.101'), (0.7515578866004944, '10.1162/qss_a_00212')]</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of document types, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, Web of Science, and others.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
+DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but identifying gaps in full openness, particularly among publishers.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, emphasizing the need for comprehensive coverage and flexible filtering tools.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, exploring tensions between standardized systems and sociocultural representations, and their impact on discovery and access.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, the study reveals limited coverage and quality issues, particularly in Scopus, and provides recommendations for improving open availability.  
+**Concluding statement:** These papers collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, underscoring the need for standardized practices and improved openness to enhance bibliometric analysis and accessibility.</t>
+  </si>
+  <si>
+    <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+  </si>
+  <si>
+    <t>[(0.7906225323677063, '10.31222/osf.io/smxe5'), (0.7719778418540955, '10.48550/arXiv.2406.15154'), (0.7709043622016907, '10.1162/qss_a_00212'), (0.7522992491722107, '10.5860/crl.86.1.101'), (0.7448015213012695, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, especially for journal articles, many publishers still need to enhance full openness of metadata.  
+DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes the availability and quality of funding data in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues, particularly in Scopus, and offers recommendations for improvement.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, with a focus on OpenAlex as a free alternative for bibliometric analyses.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses coverage, citation accuracy, and strengths/weaknesses, emphasizing the need for comprehensive coverage and flexible filtering in scientific literature.  
+**Concluding statement:** These papers collectively highlight the importance of improving funding metadata availability and quality in scholarly databases, while also underscoring the need for standardized and comprehensive bibliographic data across platforms to support robust bibliometric analysis.</t>
+  </si>
+  <si>
+    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+  </si>
+  <si>
+    <t>[(0.7662415504455566, '10.48550/arXiv.2406.13213'), (0.7297146916389465, '10.31222/osf.io/smxe5'), (0.7278458476066589, '10.48550/arXiv.2406.15154'), (0.7021817564964294, '10.18653/v1/D19-1371'), (0.6991115808486938, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances Retrieval-Augmented Generation (RAG) for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). The approach addresses the limitations of traditional RAG in handling complex, multi-step questions by improving the selection of relevant documents from diverse sources. The study demonstrates significant performance improvements on the MultiHop-RAG benchmark, with the code available for replication.  
+DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, analyzing elements such as reference lists, abstracts, and ORCIDs. While relevant to metadata accessibility, it does not discuss RAG or its applications in large language models.  
+**Concluding statement:** Among the provided documents, only the paper with DOI 10.48550/arXiv.2406.13213 directly addresses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically for enhancing multi-hop query performance. The other papers focus on bibliographic metadata and data source comparisons, which are unrelated to RAG.</t>
+  </si>
+  <si>
+    <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+  </si>
+  <si>
+    <t>[(0.77130526304245, '10.31222/osf.io/smxe5'), (0.7438650727272034, '10.48550/arXiv.2406.15154'), (0.7408377528190613, '10.1162/qss_a_00212'), (0.7120820879936218, '10.1162/qss_a_00112'), (0.696425199508667, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship.  
+DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key source of open bibliographic metadata, with initiatives improving the availability of elements like reference lists, abstracts, ORCIDs, and funding information over time, though further efforts from publishers are needed for full openness.  
+DOI: 10.48550/arXiv.2406.15154 - While this study focuses on comparing bibliographic databases, it underscores the importance of open alternatives like OpenAlex, indirectly emphasizing Crossref’s role in providing accessible metadata for scholarly analyses.  
+DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is analyzed, revealing limited coverage and quality issues, but its open infrastructure is critical for tracking research funding outcomes and improving transparency.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref’s strengths in comprehensive coverage and citation accuracy, reinforcing its importance in the scholarly ecosystem.  
+DOI: 10.5860/crl.86.1.101 - This study on metadata quality issues underscores the broader challenges in metadata standardization, where Crossref’s role in providing structured, open metadata is vital for discovery and access.  
+**Concluding Statement:** Crossref’s commitment to open bibliographic metadata enhances the accessibility, transparency, and efficiency of scholarly research, though ongoing improvements are necessary to address gaps in coverage and quality.</t>
+  </si>
+  <si>
+    <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>[(0.8222893476486206, '10.31222/osf.io/smxe5'), (0.8152760863304138, '10.48550/arXiv.2406.15154'), (0.796147346496582, '10.1162/qss_a_00212'), (0.777286946773529, '10.1162/qss_a_00112'), (0.7678638696670532, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is a free bibliometric database offering comprehensive coverage and flexible filtering, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex’s growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types, though it notes variations in typologies and classification methods compared to other databases.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the ongoing challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex’s reliance on open data sources like Crossref.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources highlights the importance of comprehensive coverage and flexible filtering, areas where OpenAlex excels, but also points to limitations in citation link completeness and accuracy.  
+Concluding statement: OpenAlex’s strengths lie in its accessibility and broad coverage, but its reliance on open data sources introduces challenges in metadata completeness and consistency, necessitating careful consideration in bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>[(0.832410454750061, '10.48550/arXiv.2406.15154'), (0.8049501180648804, '10.31222/osf.io/smxe5'), (0.7873641848564148, '10.1162/qss_a_00112'), (0.7796164155006409, '10.1162/qss_a_00212'), (0.752746045589447, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its established reputation but is criticized for its proprietary nature and limited flexibility in document categorization compared to newer, open alternatives like OpenAlex.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy, particularly for well-established disciplines. However, it lags in coverage of newer document types and disciplines, and its high cost and limited accessibility are identified as significant drawbacks.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding information but is outperformed by Scopus in certain aspects. The proprietary nature of WoS limits its openness and integration with open data infrastructures, which is increasingly important for modern research.  
+**Concluding Statement:** While WoS remains a cornerstone in bibliometric research due to its reliability and comprehensive citation data, its limitations in openness, cost, and adaptability to emerging research trends underscore the need for complementary or alternative databases in academic analysis.</t>
+  </si>
+  <si>
+    <t>How is RAG used to improve question answering or information retrieval systems?</t>
+  </si>
+  <si>
+    <t>[(0.6460117101669312, '10.48550/arXiv.2406.13213'), (0.6057950258255005, '10.48550/arXiv.2406.15154'), (0.5960034132003784, '10.1093/jamia/ocae129'), (0.595927894115448, '10.18653/v1/D19-1371'), (0.5936821103096008, '10.31222/osf.io/smxe5')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG improves question answering and information retrieval systems by leveraging external knowledge sources, enhancing multi-hop query performance, and integrating metadata filtering and advanced ranking algorithms.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark by addressing the limitations of traditional RAG in handling complex, multi-step questions.  
+DOI: 10.1093/jamia/ocae129 - **RefAI**, a GPT-powered RAG tool, demonstrates improved literature recommendation and summarization in biomedicine by integrating external resources and a novel ranking algorithm, outperforming baselines like ChatGPT-4 and ScholarAI in relevance, accuracy, and reference integration.  
+Concluding statement: These studies highlight RAG’s effectiveness in enhancing information retrieval and question answering by incorporating external knowledge, metadata filtering, and advanced algorithms, particularly for complex queries and specialized domains like biomedicine.</t>
+  </si>
+  <si>
+    <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+  </si>
+  <si>
+    <t>[(0.8014453649520874, '10.31222/osf.io/smxe5'), (0.789023756980896, '10.48550/arXiv.2406.15154'), (0.7732783555984497, '10.1162/qss_a_00112'), (0.763303816318512, '10.1162/qss_a_00212'), (0.7543959617614746, '10.1371/journal.pbio.1002542')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, database coverage, document types, and varying citation cultures, which require careful consideration of normalization methods and data sources.
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance the openness of metadata, which is crucial for accurate citation analysis across fields.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across bibliographic databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), complicating the standardization of citation metrics due to inconsistent classification and coverage.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) underscores variations in document coverage and citation link accuracy, emphasizing the need for comprehensive and flexible data sources in normalization efforts.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study identifies limited coverage and quality issues, particularly in Scopus, which affects the reliability of citation metrics across fields.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including field differences, publication age, document types, and database coverage, and highlights the need to carefully consider underlying assumptions in metric calculations.  
+**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from disparities in publication practices, database coverage, document classification, and citation cultures, necessitating robust, standardized data sources and careful methodological choices to ensure fair and accurate comparisons.</t>
+  </si>
+  <si>
+    <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+  </si>
+  <si>
+    <t>[(0.7293515801429749, '10.48550/arXiv.2406.15154'), (0.7279897332191467, '10.31222/osf.io/smxe5'), (0.7030971646308899, '10.5281/ZENODO.13960973'), (0.6922899484634399, '10.1162/qss_a_00112'), (0.6798811554908752, '10.1162/qss_a_00212')]</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing coverage and typologies across databases, and assessing metadata completeness and accuracy.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect incorrectly assigned articles in bibliographic datasets, exemplified by identifying affiliation errors in publications associated with ETH Zurich. The method is versatile and can be applied to various data types, potentially leading to corrections benefiting both data providers and users.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting significant differences in typologies and classification methods. It emphasizes the need for consistent distinctions between research and non-research texts for bibliometric analysis.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, CrossRef, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering in bibliographic data sources.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of metadata elements in Crossref, noting improvements over time but identifying gaps in openness, particularly among publishers, and recommends further efforts to enhance bibliographic metadata accessibility.  
+**Concluding statement:** These methods collectively address error detection and correction in bibliographic datasets by leveraging comparative analyses, metadata assessments, and pattern recognition, ultimately improving data quality and reliability for bibliometric research.</t>
+  </si>
+  <si>
+    <t>tell me about how RAG works.</t>
+  </si>
+  <si>
+    <t>[(0.7534315586090088, '10.31222/osf.io/smxe5'), (0.736635684967041, '10.5860/crl.86.1.101'), (0.7316906452178955, '10.1162/qss_a_00212'), (0.7076892852783203, '10.1371/journal.pbio.1002542'), (0.7068831324577332, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on bibliographic metadata, citation metrics, and data source comparisons.
+Since the context does not provide any information about RAG, I cannot provide an answer to the query.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and PubMed.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across databases.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how cultural meanings and community practices influence metadata consistency and completeness.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata elements like abstracts by assessing the overall availability and quality of metadata in these databases.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref and Scopus, evaluates coverage and accuracy of metadata elements, such as abstracts, across different platforms.  
+**Concluding Statement:** These studies collectively underscore the importance of abstracts in metadata for scholarly communication, while highlighting variability in their availability, quality, and classification across different bibliographic databases.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations by comparing bibliographic databases, analyzing metadata availability, and assessing citation link completeness and accuracy.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
+DOI: 10.31222/osf.io/smxe5 - The research focuses on the availability of bibliographic metadata in Crossref, including reference lists, which are essential for citation analysis, and notes improvements over time but identifies gaps in publisher efforts toward full openness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines differences in document coverage and the completeness and accuracy of citation links, providing insights into the strengths and weaknesses of each data source for citation studies.  
+DOI: 10.1162/qss_a_00212 - While primarily focused on funding data, this study compares funding information availability in Crossref, Scopus, and Web of Science, indirectly addressing citation analysis by highlighting data quality and coverage issues that affect bibliometric research.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, including those related to citation data, by examining how sociocultural factors and resource constraints impact metadata consistency and completeness, which are critical for accurate citation analysis.  
+Concluding statement: These studies collectively underscore the importance of understanding variations in bibliographic databases and metadata quality for reliable citation analysis, while also identifying areas for improvement in data openness and standardization.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary significantly across databases.  
+DOI: 10.31222/osf.io/smxe5 - While focusing on Crossref, this document underscores the importance of open bibliographic metadata, which aligns with OpenAlex's mission. It highlights improvements in metadata availability over time but notes that further efforts are needed for full openness, a challenge OpenAlex aims to address.  
+DOI: 10.1162/qss_a_00212 - This study examines funding data availability in Crossref and proprietary databases, revealing limitations in coverage and quality. OpenAlex, as an open alternative, could potentially improve access to such data by integrating more comprehensive and transparent metadata.  
+**Concluding Statement:** OpenAlex stands out as a valuable open-access resource for academic research, offering robust coverage and analysis of publications while addressing gaps in metadata availability and accessibility compared to proprietary databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its data availability and quality vary across elements and require further improvements, particularly in funding data and metadata consistency.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. While availability has improved over time, especially for journal articles, many publishers still need to enhance full openness.  
+DOI: 10.1162/qss_a_00212 - Analysis of Crossref's funding data for COVID-19 research reveals limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, with recommendations for improving open availability.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, highlighting the need for interventions to address cultural and community-specific issues.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, shows varying strengths and weaknesses in coverage, citation accuracy, and document types, emphasizing the need for comprehensive and flexible data sources.  
+DOI: 10.48550/arXiv.2406.15154 - Crossref is analyzed alongside other databases like OpenAlex and Scopus, revealing differences in publication and document type classifications, which impact bibliometric analysis and highlight OpenAlex's growing importance as a free alternative.  
+**Concluding Statement:** Crossref plays a vital role in open scholarly metadata but faces challenges in data completeness, consistency, and quality, particularly in funding information and cross-cultural metadata representation, necessitating ongoing improvements and collaborative efforts.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of coverage, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, Web of Science, and others.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
+DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering tools.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on individuals and communities.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the study compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, particularly in Scopus, and offering recommendations for improvement.  
+**Concluding Statement:** These papers collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance research accessibility and analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, especially for journal articles, many publishers still need to enhance full openness of metadata.  
+DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes the availability and quality of funding data in Crossref, Scopus, and Web of Science, revealing limited coverage in Crossref and quality issues in Scopus, with recommendations for improvement.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, which indirectly impacts the analysis of funding metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) assesses coverage and citation accuracy, providing insights into the strengths and weaknesses of these platforms for funding metadata analysis.  
+**Concluding Statement:** These papers collectively highlight the importance of improving funding metadata availability and quality across scholarly databases, with specific attention to Crossref, Scopus, and Web of Science, while also emphasizing the role of emerging platforms like OpenAlex in bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries.  
+DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. It addresses the limitations of traditional RAG in handling complex, multi-step questions and demonstrates significant improvements on the MultiHop-RAG benchmark.  
+Concluding statement: While the provided context includes only one paper directly relevant to RAG in large language models, it highlights a novel approach to improving RAG’s performance in multi-hop query scenarios, underscoring the potential for further research in this area.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship, though challenges remain in achieving full metadata openness.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on elements like reference lists, abstracts, ORCIDs, and funding information. While availability has improved, especially for journal articles, many publishers still need to enhance metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights the variability in publication and document types across bibliographic databases, emphasizing OpenAlex as a growing free alternative for bibliometric analyses, though Crossref is not the primary focus.  
+DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is limited, particularly for COVID-19 research, with recommendations provided to improve openness and quality of funding metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, reveals its strengths in coverage and citation accuracy but underscores the need for flexible filtering tools in scholarly literature.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from sociocultural tensions and resource constraints, highlighting the need for standardized systems to ensure consistency and completeness, which Crossref partially addresses through its initiatives.  
+**Concluding Statement:** Crossref’s role in the scholarly ecosystem is pivotal for advancing open metadata, yet ongoing efforts are required to address gaps in coverage, quality, and publisher participation to fully realize its potential.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications can differ significantly between OpenAlex and proprietary databases, impacting bibliometric analysis.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex's reliance on open data sources like Crossref.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data in Crossref, revealing limited coverage and quality issues, which may indirectly affect OpenAlex since it aggregates data from such sources.  
+**Concluding Statement:** OpenAlex's key features include its open access and broad coverage, but its limitations in metadata completeness and consistency, as well as dependencies on external data sources, highlight areas for improvement to enhance its utility in bibliometric research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in disciplinary coverage.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its established reputation but is criticized for its proprietary nature and limited flexibility in document categorization compared to newer, open alternatives like OpenAlex.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy, particularly for well-established disciplines. However, it lags in coverage of newer document types and disciplines, and its high cost and limited accessibility are identified as significant drawbacks.  
+Concluding statement: While WoS remains a cornerstone in bibliometric research due to its reliability and extensive citation data, its proprietary model, high costs, and disciplinary biases limit its accessibility and adaptability compared to emerging open-access alternatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG improves question answering and information retrieval systems by leveraging external knowledge sources, enhancing multi-hop query performance, and integrating metadata filtering and advanced ranking algorithms, as demonstrated in various applications including biomedical literature and scientific text processing.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark by selecting relevant documents from diverse sources.  
+DOI: 10.1093/jamia/ocae129 - **RefAI** is presented as a GPT-powered RAG tool for biomedical literature recommendation and summarization, outperforming baselines by addressing limitations like fabricated papers and poor reference integration through external resources and a novel ranking algorithm.  
+DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, improves NLP tasks by leveraging a large multi-domain corpus of scientific publications, achieving state-of-the-art results in tasks like sequence tagging and dependency parsing.  
+**Concluding Statement:** These studies collectively highlight RAG's versatility in enhancing information retrieval and question answering across domains, particularly through metadata integration, advanced filtering, and domain-specific model adaptations.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying classification standards, which hinder consistent comparison and analysis.  
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across databases like OpenAlex, Scopus, and Web of Science, complicating the standardization of citation metrics due to varying classification methods.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows disparities in document coverage and citation link accuracy, emphasizing the need for comprehensive and flexible filtering tools to normalize metrics across disciplines.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref, Scopus, and Web of Science, which further complicates the normalization of citation metrics across fields.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including accounting for field differences, publication age, and document types, and stresses the need to carefully consider underlying assumptions in metric calculations.  
+**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from inconsistencies in metadata availability, document classification, database coverage, and funding data quality, underscoring the need for standardized practices and comprehensive data infrastructures.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability, and comparing data sources to identify discrepancies and improve data quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by leveraging missing data patterns. Applied to affiliation metadata, the method identifies incorrectly assigned articles, offering a flexible approach to error detection that can benefit both data providers and users.  
+DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives to promote open bibliographic metadata in Crossref, focusing on the availability of key elements like reference lists and ORCIDs. While availability has improved, publishers need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals differences in coverage, citation accuracy, and document types, emphasizing the need for comprehensive and flexible data filtering.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting typological differences and the need for consistent distinctions between research and non-research texts.  
+**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata completeness, and cross-database comparisons, ultimately improving data reliability for bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on bibliographic metadata, metadata quality, funding data, citation metrics, and comparisons of bibliographic data sources.
+Since the context does not provide any information about RAG, I cannot provide an answer to the query.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** The study by DOI: 10.31222/osf.io/smxe5 explicitly examines the availability of abstracts in metadata, specifically within Crossref.  
+DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and highlights improvements over time in their openness, particularly for journal articles, while noting the need for further efforts by publishers to achieve full metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - This research focuses on comparing publication and document types across multiple bibliographic databases, including OpenAlex and Scopus, but does not specifically examine abstracts in metadata.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, emphasizing tensions between sociocultural representations and standardized systems, but does not focus on abstracts.  
+DOI: 10.1162/qss_a_00212 - This analysis explores funding data availability in Crossref and other databases for COVID-19 research, without addressing abstracts in metadata.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources evaluates coverage and citation accuracy but does not specifically investigate abstracts.  
+**Concluding statement:** Among the provided documents, only DOI: 10.31222/osf.io/smxe5 directly examines the availability of abstracts in metadata, specifically within the context of Crossref.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations by comparing bibliographic databases, analyzing metadata availability, and assessing citation link completeness and accuracy.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, CrossRef, and Microsoft Academic focuses on document coverage and citation link completeness and accuracy, providing insights into the strengths and weaknesses of these data sources for citation analysis.  
+DOI: 10.31222/osf.io/smxe5 - This study examines the availability of metadata elements, including reference lists, in Crossref, noting improvements over time but also gaps that affect the openness of bibliographic metadata, which is crucial for citation tracking.  
+Concluding statement: These studies collectively underscore the importance of understanding differences in bibliographic databases and metadata availability for accurate and comprehensive citation analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important free alternative to proprietary bibliometric databases, offering comprehensive coverage of publication and document types, though it faces challenges in metadata quality and consistency compared to established providers like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Scopus, Web of Science, Semantic Scholar, PubMed) and highlights that OpenAlex is gaining importance as a free alternative for bibliometric analyses. It emphasizes the variability in document typologies and classification across databases, with OpenAlex providing distinct coverage and analysis of publication types.  
+DOI: 10.1162/qss_a_00212 - While not directly about OpenAlex, this study underscores the limitations of funding data availability in Crossref, a key metadata source. It suggests improvements in open data infrastructures, which are relevant to OpenAlex’s reliance on such data for comprehensive bibliometric analysis.  
+**Concluding Statement:** OpenAlex’s role as a free and open bibliometric resource is growing, but its effectiveness depends on addressing metadata quality and consistency issues, as highlighted in comparative studies with proprietary databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata, promoting accessibility and transparency in scholarly publishing, though challenges remain in ensuring full openness and data quality across various metadata elements.
+DOI: 10.31222/osf.io/smxe5 - Crossref has adopted initiatives to enhance the open availability of bibliographic metadata, with improvements over time in elements like reference lists, abstracts, ORCIDs, and funding information, particularly for journal articles, but many publishers still need to increase efforts for complete openness.  
+DOI: 10.1162/qss_a_00212 - Analysis of funding data in Crossref, especially for COVID-19 research, reveals limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve open availability.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from tensions between sociocultural representations, resource constraints, and standardized systems, impacting discovery and access, with interventions sometimes interpreted as political or strategic acts.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in coverage, citation accuracy, and flexibility, emphasizing the need for comprehensive and adaptable literature selection tools.  
+DOI: 10.48550/arXiv.2406.15154 - Crossref is analyzed alongside other databases like OpenAlex and Scopus, revealing variations in publication and document type classifications, which affect bibliometric analyses, particularly as OpenAlex gains importance as a free alternative.  
+**Concluding Statement:** Crossref plays a pivotal role in advancing open bibliographic metadata, yet ongoing efforts are required to address gaps in data availability, quality, and standardization across scholarly publishing ecosystems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on document types, metadata availability, and cross-database comparisons.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
+DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation links, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering tools.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on discovery and access.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, the study reveals limited coverage and quality issues, particularly in Scopus, and provides recommendations for improving open availability of funding metadata.  
+**Concluding Statement:** These papers collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance bibliometric analyses and accessibility.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and highlights improvements over time while noting the need for publishers to enhance full openness.  
+DOI: 10.1162/qss_a_00212 - The study analyzes funding data availability in Crossref, Scopus, and Web of Science, particularly for COVID-19 research, revealing limited coverage and quality issues, and offers recommendations for improvement.  
+DOI: 10.48550/arXiv.2406.15154 - While primarily comparing publication and document types across databases, this paper indirectly addresses metadata availability, including funding data, by highlighting differences in classification and coverage among OpenAlex, Scopus, Web of Science, and other databases.  
+**Concluding statement:** These papers collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, with Crossref and OpenAlex emerging as key platforms for open metadata initiatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** The paper "Multi-Meta-RAG: Improving RAG for Multi-Hop Queries using Database Filtering with LLM-Extracted Metadata" (DOI: 10.48550/arXiv.2406.13213) discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically addressing its limitations in multi-hop queries and proposing a method to enhance its performance.
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a novel approach that leverages database filtering with LLM-extracted metadata to improve the selection of relevant documents from various sources for multi-hop queries. The method significantly enhances the performance of RAG on the MultiHop-RAG benchmark, addressing the traditional RAG's poor performance in multi-hop question answering.
+The other documents provided (DOI: 10.31222/osf.io/smxe5, DOI: 10.48550/arXiv.2406.15154, DOI: 10.18653/v1/D19-1371, DOI: 10.1162/qss_a_00112) do not directly discuss RAG in large language models or related applications but focus on bibliographic metadata, publication analysis, and pre-trained language models for scientific text.
+**Concluding Statement:** Only the paper with DOI 10.48550/arXiv.2406.13213 directly addresses the use of Retrieval-Augmented Generation (RAG) in large language models, offering a specific solution to improve its performance in multi-hop queries.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in academic publishing.  
+DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key source of open bibliographic metadata, with initiatives improving the availability of elements like reference lists, abstracts, ORCIDs, and funding information. However, many publishers still need to enhance efforts for full metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - While this study focuses on comparing bibliographic databases, it underscores the importance of open alternatives like OpenAlex, indirectly emphasizing Crossref’s role in providing open metadata for scholarly analyses.  
+DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is analyzed, revealing limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, highlighting areas for improvement in open data infrastructure.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, emphasizes its importance in comprehensive scientific literature coverage and the need for flexible filtering tools.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, indirectly supporting Crossref’s role in standardizing and improving metadata consistency across cultures and communities.  
+**Concluding Statement:** Crossref’s efforts to enhance open bibliographic metadata are vital for scholarly communication, though ongoing improvements in coverage, quality, and publisher participation are essential to maximize its impact.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications differ significantly across databases, affecting the distinction between research and non-research texts.  
+DOI: 10.1162/qss_a_00212 - While not directly focused on OpenAlex, this study underscores the challenges in funding data availability and quality in open data infrastructures like CrossRef, which are relevant to OpenAlex's reliance on such sources for metadata completeness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources highlights the strengths and weaknesses of various databases, including the importance of comprehensive coverage and flexible filtering, areas where OpenAlex may still need improvement.  
+**Concluding Statement:** OpenAlex offers a valuable open-access resource for bibliometric analysis, particularly in its coverage of diverse document types. However, its limitations in metadata completeness and consistency, as well as differences in classification compared to proprietary databases, necessitate careful consideration when using it for research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its established reputation but is criticized for its proprietary nature and limited flexibility in distinguishing research and non-research texts.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation link accuracy and completeness, particularly for well-established disciplines. However, it lags in coverage of newer document types and disciplines, and its high cost is a barrier for many institutions.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding information but is limited by its proprietary access, which restricts broader use and integration with open data infrastructures.  
+**Concluding Statement:** While WoS remains a cornerstone for bibliometric analysis due to its reliability and comprehensive citation data, its proprietary nature, high costs, and limitations in covering emerging disciplines and document types present significant challenges for researchers and institutions seeking open and flexible alternatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop query handling, and leveraging metadata for precise document selection, as demonstrated in various applications including biomedical literature and scientific text processing.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark by selecting relevant documents from diverse sources.  
+DOI: 10.1093/jamia/ocae129 - **RefAI**, a GPT-powered RAG tool, addresses limitations in biomedical literature recommendation and summarization by integrating external resources and a novel ranking algorithm, outperforming baselines in relevance, accuracy, and reference integration.  
+DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, improves NLP tasks by leveraging a large multi-domain corpus, achieving state-of-the-art results in sequence tagging, sentence classification, and dependency parsing.  
+**Concluding Statement:** RAG’s effectiveness in question answering and information retrieval is enhanced through innovative methods like metadata-driven filtering, domain-specific model adaptations, and integration of external knowledge sources, as evidenced by advancements in multi-hop queries, biomedical literature, and scientific text processing.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying citation cultures, which require careful consideration of normalization methods and data sources.
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of data used for citation metrics across fields.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across bibliographic databases, complicating the standardization of citation metrics due to varying classification methods and coverage.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources underscores disparities in document coverage and citation link accuracy, emphasizing the need for comprehensive and flexible data sources to support normalization efforts.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref and Scopus, which can skew citation metrics, particularly in interdisciplinary or underfunded fields.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses the complexities of normalizing citation metrics, including field-specific differences, publication age, and document types, and cautions against oversimplified approaches.  
+**Concluding Statement:** Effective normalization of citation metrics requires addressing disparities in data availability, classification, and citation practices across fields, while leveraging comprehensive and flexible data sources to ensure fairness and accuracy in research evaluation.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing metadata availability across databases, and evaluating coverage and accuracy of citation links.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect incorrectly assigned articles in bibliographic datasets, exemplified by identifying misaffiliated papers associated with ETH Zurich. The method is versatile and can be applied to various data types, potentially leading to corrections benefiting both data providers and users.  
+DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives promoting open bibliographic metadata in Crossref, focusing on the availability of six metadata elements. While availability has improved over time, especially for journal articles, many publishers still need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) reveals differences in document coverage, citation link completeness, and accuracy, emphasizing the need for comprehensive coverage and flexible filtering tools.  
+**Concluding statement:** These methods collectively address error detection and correction in bibliographic datasets by leveraging data patterns, metadata analysis, and comparative evaluations, ultimately improving data quality and reliability for bibliometric research.</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on bibliographic metadata, citation metrics, and data source comparisons.
+Since the context does not provide any information related to RAG, I cannot provide an answer to the query.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and PubMed.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how cultural meanings and community practices influence metadata consistency and completeness.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of broader bibliographic data analysis.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses coverage and accuracy of metadata elements, including abstracts, across these platforms.  
+**Concluding Statement:** These studies collectively highlight the importance of abstracts in metadata for scholarly communication, emphasizing the need for improved availability, consistency, and quality across different bibliographic databases.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations and bibliographic data sources, focusing on coverage, metadata quality, and citation link accuracy.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, CrossRef, and Microsoft Academic examines document coverage, citation link completeness, and accuracy, emphasizing the need for comprehensive coverage and flexible filtering in bibliographic data sources.  
+DOI: 10.31222/osf.io/smxe5 - This research assesses the availability of open bibliographic metadata in Crossref, particularly reference lists, and notes improvements over time, though additional efforts are needed for full openness.  
+Concluding statement: These studies collectively underscore the importance of understanding variations in bibliographic data sources and metadata quality for accurate citation analysis and bibliometric research.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers for bibliometric analyses, with a focus on publication and document type coverage, though it faces challenges related to metadata quality and consistency.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free alternative for bibliometric analyses. It emphasizes OpenAlex's coverage of publication and document types but notes that typologies and classifications can vary across databases, affecting bibliometric analysis.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses the open availability of bibliographic metadata in Crossref, a related initiative. It highlights improvements in metadata availability over time but underscores the need for publishers to enhance full openness, which is relevant to OpenAlex's goals as an open-access platform.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues. While not directly about OpenAlex, it underscores the importance of open data infrastructures like OpenAlex in addressing such gaps.  
+Concluding statement: OpenAlex is a valuable open-access resource for bibliometric analyses, offering extensive coverage of publication and document types, but it operates within a broader ecosystem where metadata quality, consistency, and openness remain critical challenges.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality vary, particularly for funding information, and it faces challenges in achieving full metadata openness compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements (reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information). While availability has improved over time, especially for journal articles, many publishers still need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00212 - Analysis of COVID-19 research funding data in Crossref reveals limited coverage and quality issues compared to Scopus and Web of Science, highlighting the need for improvements in open funding data availability.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality is influenced by sociocultural factors, resource constraints, and standardization issues, impacting discovery and access, with interventions sometimes interpreted as political or strategic acts.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in document coverage and citation accuracy, emphasizing the need for comprehensive and flexible literature selection tools.  
+DOI: 10.48550/arXiv.2406.15154 - Crossref is analyzed alongside other databases, showing variations in publication and document type classifications, which affect bibliometric analysis, particularly in comparison to emerging open alternatives like OpenAlex.  
+**Concluding Statement:** Crossref plays a vital role in open scholarly metadata but requires continued efforts to address coverage gaps, data quality, and standardization challenges to compete with proprietary databases and support robust bibliometric analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of coverage, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, Web of Science, and others.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
 DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
 DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation links, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering in bibliographic data sources.  
-DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on individuals and communities.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the study compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, particularly in Scopus, and offers recommendations for improvement.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on discovery and access.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the paper compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, particularly in Scopus, and offering recommendations for improvement.  
+**Concluding Statement:** These studies collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance accessibility and reliability in academic research.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and highlights improvements over time while noting the need for publishers to enhance full openness.  
+DOI: 10.1162/qss_a_00212 - The study analyzes funding data availability in Crossref, Scopus, and Web of Science, particularly for COVID-19 research, revealing limited coverage and quality issues, and offers recommendations for improvement.  
+DOI: 10.48550/arXiv.2406.15154 - While primarily comparing publication and document types across databases, this paper indirectly addresses metadata availability, including funding data, by highlighting differences in classification and coverage among OpenAlex, Scopus, Web of Science, and others.  
+**Concluding statement:** These papers collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, with Crossref and OpenAlex emerging as key platforms for open metadata initiatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
+DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that enhances RAG for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). It addresses the limitations of traditional RAG in handling complex, multi-step questions and demonstrates significant improvements on the MultiHop-RAG benchmark. The approach is domain-specific but shows promise in improving the selection of relevant documents from diverse sources.
+DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, discussing initiatives to promote openness and analyzing the availability of specific metadata elements. It does not address RAG or large language models.
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across various bibliographic databases, highlighting differences in typologies and classification methods. It is unrelated to RAG or large language models.
+DOI: 10.18653/v1/D19-1371 - This paper introduces **SciBERT**, a pretrained language model for scientific text, addressing the lack of large-scale annotated scientific data. It does not discuss RAG or its applications.
+DOI: 10.1162/qss_a_00112 - This paper compares five bibliographic data sources, analyzing coverage, citation links, and their strengths and weaknesses. It is not related to RAG or large language models.
+**Concluding Statement:** Among the provided documents, only the paper with DOI 10.48550/arXiv.2406.13213 directly discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries. The other papers address unrelated topics such as bibliographic metadata, database comparisons, and pretrained language models for scientific text.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in academic publishing.  
+DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key source of open bibliographic metadata, with initiatives improving the availability of elements like reference lists, abstracts, ORCIDs, and funding information. However, many publishers still need to enhance efforts for full metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - While this study focuses on comparing bibliographic databases, it underscores the importance of open alternatives like OpenAlex, indirectly emphasizing Crossref’s role in providing accessible metadata for scholarly analysis.  
+DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is analyzed, revealing limited coverage and quality issues, but recommendations are provided to improve its role in tracking research funding outcomes.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref’s strengths and weaknesses, emphasizing its importance in comprehensive scientific literature coverage and citation accuracy.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, indirectly supporting Crossref’s role in standardizing metadata to enhance discovery and access across diverse cultural contexts.  
+**Concluding Statement:** Crossref’s efforts to promote open bibliographic metadata are vital for advancing scholarly research, though ongoing improvements are needed to address gaps in coverage and quality.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage and flexible document typologies, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications can differ significantly from proprietary databases, affecting bibliometric analysis consistency.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex's reliance on open data sources like Crossref.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in Crossref, revealing limited coverage and quality issues, which may impact OpenAlex's ability to provide comprehensive funding metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights the importance of comprehensive coverage and flexible filters, areas where OpenAlex may still lag behind established proprietary databases.  
+**Concluding Statement:** OpenAlex offers a valuable open-access alternative for bibliometric research, particularly in terms of coverage and accessibility. However, its limitations in metadata completeness, consistency, and typological alignment with proprietary databases necessitate cautious interpretation and supplementary data sources for robust analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can impact bibliometric analysis. It also notes that WoS’s proprietary nature contrasts with emerging open alternatives like OpenAlex.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy but falls short in coverage of certain document types and disciplines, particularly when compared to more comprehensive or open-access databases.  
+DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding information but is limited by its proprietary access, which restricts broader use and comparison with open data sources.  
+**Concluding Statement:** While WoS remains a cornerstone for bibliometric analysis due to its reliability and depth in citation data, its limitations in accessibility, cost, and disciplinary coverage underscore the need for complementary or alternative databases, especially in the context of open science initiatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop query handling, and leveraging metadata for precise document selection, as demonstrated in various studies.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark by ensuring relevant document selection from diverse sources.  
+DOI: 10.1093/jamia/ocae129 - **RefAI**, a GPT-powered RAG tool, addresses limitations in biomedical literature recommendation and summarization by integrating external resources and a novel ranking algorithm, outperforming baselines in relevance, accuracy, and reference integration.  
+DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, improves NLP tasks by leveraging a large multi-domain corpus of scientific publications, achieving state-of-the-art results in tasks like sequence tagging and dependency parsing.  
+**Concluding Statement:** These studies collectively highlight RAG's versatility in enhancing information retrieval and question answering by integrating external knowledge, optimizing metadata usage, and tailoring models to specific domains, thereby addressing challenges in multi-hop queries and specialized fields like biomedicine.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying citation cultures, which require careful consideration of normalization methods and data sources.
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance the openness and completeness of metadata, which is crucial for accurate citation analysis across fields.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across major bibliographic databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), complicating the standardization of citation metrics due to inconsistent classification and coverage.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) underscores variations in document coverage, citation link accuracy, and discipline-specific differences, emphasizing the need for flexible filters and comprehensive coverage in normalization efforts.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, this study highlights limited coverage and quality issues in Crossref, Scopus, and Web of Science, which affect the reliability of citation metrics across fields.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including field-specific differences, publication age, document types, and database coverage, and emphasizes the need to carefully consider underlying assumptions in metric calculations.  
+**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from inconsistencies in data sources, classification practices, and citation cultures, necessitating robust normalization methods and improved metadata availability to ensure fair and accurate comparisons.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing metadata availability across databases, and evaluating coverage and accuracy of citation links.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and lead to corrections benefiting both data providers and users.  
+DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives to improve the open availability of bibliographic metadata in Crossref, showing improvements over time but also identifying gaps that require additional efforts from publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals differences in document coverage, citation link accuracy, and completeness, emphasizing the need for comprehensive coverage and flexible filtering tools.  
+Concluding statement: These methods collectively contribute to enhancing the quality and reliability of bibliographic datasets by identifying errors, improving metadata availability, and ensuring accurate and comprehensive data coverage.</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on metadata quality, bibliographic data sources, and citation metrics.
+Since the context does not provide any information about RAG, I cannot provide an answer to the query.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and others.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how cultural meanings and community practices influence metadata consistency and completeness.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of broader bibliographic data analysis.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses coverage and accuracy of metadata elements, including abstracts, across disciplines and time.  
+**Concluding statement:** These studies collectively highlight the importance of abstracts in metadata for discovery and access, while underscoring the variability in their availability, quality, and classification across different bibliographic databases.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations by comparing bibliographic databases, analyzing metadata availability, and assessing citation link completeness and accuracy.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
+DOI: 10.31222/osf.io/smxe5 - The research focuses on the availability of bibliographic metadata in Crossref, including reference lists, which are essential for citation analysis, and notes improvements over time but identifies gaps in publisher efforts toward full openness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines differences in document coverage and the completeness and accuracy of citation links, providing insights into the strengths and weaknesses of each data source for citation studies.  
+DOI: 10.1162/qss_a_00212 - While primarily focused on funding data, this study compares funding information availability in Crossref, Scopus, and Web of Science, indirectly addressing citation analysis by highlighting data quality and coverage issues that affect bibliometric research.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, including those related to citation data, by examining how metadata reflects cultural meanings and impacts discovery, indirectly contributing to understanding citation practices across different contexts.  
+Concluding statement: These studies collectively underscore the importance of standardized and comprehensive bibliographic data for accurate citation analysis, while also revealing persistent challenges in data availability, quality, and cross-database comparability.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses, emphasizing its coverage and analysis of publication and document types.  
+DOI: 10.1162/qss_a_00212 - While not directly about OpenAlex, this study underscores the importance of open data infrastructures like Crossref, which are foundational to initiatives such as OpenAlex, by analyzing funding data availability and quality in scholarly publications.  
+DOI: 10.31222/osf.io/smxe5 - This research discusses the open availability of bibliographic metadata in Crossref, a key component of OpenAlex, and highlights the need for improved metadata openness, which aligns with OpenAlex's mission to provide accessible scholarly data.  
+**Concluding Statement:** OpenAlex stands out as a vital open-access resource in academic research, addressing gaps in metadata availability and offering a robust alternative to proprietary databases, as evidenced by its comparative analysis and alignment with open data initiatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality, particularly for funding information, vary and require improvement.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. While availability has improved over time, especially for journal articles, many publishers still need to enhance full openness.  
+DOI: 10.1162/qss_a_00212 - Analysis of Crossref’s funding data for COVID-19 research reveals limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve open funding data availability.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, highlighting the need for interventions to address these tensions.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, shows variations in document coverage, citation accuracy, and discipline-specific strengths, emphasizing the importance of comprehensive coverage and flexible filtering.  
+DOI: 10.48550/arXiv.2406.15154 - Crossref is analyzed alongside other databases like OpenAlex and Scopus, revealing differences in publication and document type classifications, which impact bibliometric analyses.  
+**Concluding Statement:** Crossref plays a vital role in open bibliographic metadata but faces challenges in coverage, data quality, and standardization, requiring collaborative efforts from publishers and stakeholders to enhance its utility.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of document types, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage as a free alternative for bibliometric analyses.  
+DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering tools.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on discovery and access.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, the paper reveals limited coverage and quality issues, particularly in Scopus, and provides recommendations for improving open availability of funding metadata.  
 **Concluding Statement:** These papers collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance research accessibility and analysis.</t>
   </si>
   <si>
-    <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, especially for journal articles, many publishers still need to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes funding data availability in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues, particularly in Scopus, and offers recommendations for improvement.  
-DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, with a focus on OpenAlex as a free alternative for bibliometric analyses.  
-**Concluding statement:** These studies collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, while also highlighting the need for standardized classification methods and comprehensive coverage across platforms.</t>
-  </si>
-  <si>
-    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** The paper "Multi-Meta-RAG: Improving RAG for Multi-Hop Queries using Database Filtering with LLM-Extracted Metadata" (DOI: 10.48550/arXiv.2406.13213) discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically addressing its limitations in multi-hop queries and proposing a method to enhance its performance.
-DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a novel approach that leverages database filtering with LLM-extracted metadata to improve the selection of relevant documents from various sources for multi-hop queries. The method significantly enhances the performance of RAG on the MultiHop-RAG benchmark, demonstrating its effectiveness in complex question-answering scenarios.
-The other provided documents (DOI: 10.31222/osf.io/smxe5, DOI: 10.48550/arXiv.2406.15154, DOI: 10.18653/v1/D19-1371, DOI: 10.1162/qss_a_00112) focus on bibliographic metadata, publication analysis, and pre-trained language models but do not directly discuss RAG or its applications in large language models.
-**Concluding Statement:** Only the paper with DOI 10.48550/arXiv.2406.13213 directly addresses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically targeting improvements for multi-hop queries.</t>
-  </si>
-  <si>
-    <t>What is Crossref’s role in the scholarly research ecosystem?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship, though challenges remain in achieving full metadata openness.
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on elements like reference lists, abstracts, ORCIDs, and funding information. Analysis shows improved availability over time, particularly for journal articles, but highlights the need for publishers to enhance full openness.  
-DOI: 10.48550/arXiv.2406.15154 - While not directly about Crossref, this study emphasizes the variability in document classification across bibliographic databases, underscoring the importance of standardized metadata for accurate bibliometric analysis.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is limited compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve openness and quality of funding metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref’s role in providing comprehensive scientific literature coverage, though it differs in strengths and weaknesses compared to other platforms like Scopus and Dimensions.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and cultural representation are critical for discovery and access, with Crossref’s standardized metadata efforts addressing tensions between sociocultural representations and resource constraints.  
-**Concluding Statement:** Crossref is a key player in advancing open scholarly metadata, improving research discoverability, and supporting transparency, but ongoing efforts are needed to address gaps in metadata completeness, funding data availability, and standardization across the ecosystem.</t>
-  </si>
-  <si>
-    <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications differ significantly across databases, affecting the distinction between research and non-research texts.  
-DOI: 10.1162/qss_a_00212 - While not directly focused on OpenAlex, this study underscores the challenges in funding data availability and quality in open data infrastructures like Crossref, which are relevant to OpenAlex's open metadata approach.  
-Concluding statement: OpenAlex’s key features include its open access and broad coverage, but its limitations in metadata completeness and consistency, as well as differences in classification compared to proprietary databases, require careful consideration for bibliometric analyses.</t>
-  </si>
-  <si>
-    <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, especially for journal articles, many publishers still need to enhance full openness of metadata.  
+DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes the availability and quality of funding data in Crossref, Scopus, and Web of Science, revealing limited coverage in Crossref and quality issues in Scopus, with recommendations for improvement.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, which indirectly impacts the analysis of funding metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses coverage and citation accuracy, providing insights into the strengths and weaknesses of these platforms for funding metadata analysis.  
+**Concluding Statement:** These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata across major scholarly databases, emphasizing the need for improved openness, standardization, and quality in metadata reporting.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances Retrieval-Augmented Generation (RAG) for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). The approach addresses the limitations of traditional RAG in handling complex, multi-step questions by improving the selection of relevant documents from diverse sources. The study demonstrates significant performance improvements on the MultiHop-RAG benchmark, with the code available for replication.
+DOI: 10.31222/osf.io/smxe5, DOI: 10.48550/arXiv.2406.15154, DOI: 10.18653/v1/D19-1371, and DOI: 10.1162/qss_a_00112 - These papers focus on bibliographic metadata availability, comparisons of bibliographic databases, and pretraining language models for scientific text, respectively, and do not discuss RAG or its applications in large language models.
+**Concluding Statement:** While only one paper directly addresses RAG in large language models, it provides a novel and effective method for improving multi-hop query performance, highlighting the potential of RAG in complex information retrieval tasks.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in academic publishing, though challenges remain in achieving full metadata openness.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on elements like reference lists, abstracts, ORCIDs, and funding information. Analysis shows improved availability over time, particularly for journal articles, but highlights the need for publishers to enhance full metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - While not directly about Crossref, this study underscores the variability in document classification across bibliographic databases, emphasizing the importance of standardized metadata for accurate bibliometric analysis.  
+DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is limited compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve its openness and quality.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref’s strengths in coverage and citation accuracy, though it emphasizes the need for flexible filters and comprehensive literature coverage.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, noting tensions between standardization and cultural representation, which indirectly underscores Crossref’s role in balancing these aspects for global scholarly communication.  
+**Concluding Statement:** Crossref is a vital infrastructure for open scholarly metadata, fostering transparency and accessibility, but ongoing efforts are required to address gaps in metadata completeness, funding data availability, and cultural inclusivity.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage and flexible filtering, but it faces limitations in metadata completeness, typology consistency, and funding data availability compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliometric databases, highlighting its growing importance as a free alternative. It reveals that document typologies and classifications in OpenAlex differ significantly from proprietary databases, impacting bibliometric analysis. OpenAlex’s coverage of publication and document types is analyzed, emphasizing its potential but noting inconsistencies in distinguishing research and non-research texts.  
+DOI: 10.1162/qss_a_00212 - While not directly about OpenAlex, this study underscores the limited coverage and quality issues of funding data in open databases like CrossRef, which may also apply to OpenAlex. The findings suggest that OpenAlex, as an open infrastructure, could face similar challenges in providing comprehensive funding information.  
+**Concluding Statement:** OpenAlex is a valuable resource for bibliometric analysis, particularly for institutions seeking free alternatives to proprietary databases. However, its limitations in metadata completeness, typology consistency, and funding data availability necessitate careful consideration when used for comprehensive research analysis.</t>
   </si>
   <si>
     <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.  
 DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. It also notes that WoS’s proprietary nature contrasts with emerging open alternatives like OpenAlex.  
 DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy but may have limitations in coverage over time, across disciplines, and for non-traditional document types.  
 DOI: 10.1162/qss_a_00212 - This analysis focuses on funding data availability in WoS compared to Scopus and CrossRef, showing that while WoS provides reliable funding information, its coverage is limited compared to open data sources like CrossRef.  
-**Concluding Statement:** WoS remains a cornerstone for bibliometric analysis due to its reliability and comprehensive citation data, but its proprietary nature, cost, and limitations in coverage and openness present challenges, particularly in comparison to emerging open-access alternatives.</t>
-  </si>
-  <si>
-    <t>How is RAG used to improve question answering or information retrieval systems?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop query handling, and leveraging metadata for precise document selection, as demonstrated in various applications including biomedical literature and scientific text processing.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark by ensuring relevant document selection from diverse sources.  
-DOI: 10.1093/jamia/ocae129 - **RefAI** is presented as a GPT-powered RAG tool for biomedical literature recommendation and summarization, addressing limitations of existing models by integrating external resources and a novel ranking algorithm, resulting in statistically significant improvements in accuracy, comprehensiveness, and reference integration.  
-DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, demonstrates improved performance on downstream NLP tasks by leveraging a large multi-domain corpus of scientific publications, addressing the scarcity of annotated scientific data.  
-**Concluding Statement:** RAG’s integration with metadata, external knowledge sources, and domain-specific models like Multi-Meta-RAG, RefAI, and SciBERT significantly enhances its effectiveness in complex question answering and information retrieval, particularly in specialized fields such as biomedicine and scientific research.</t>
-  </si>
-  <si>
-    <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying classification standards, which hinder consistent comparison and analysis.  
-DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document typologies across databases like OpenAlex, Scopus, and Web of Science, complicating the normalization of citation metrics due to inconsistent classification standards.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows variations in document coverage and citation link accuracy across disciplines, emphasizing the need for flexible filters and comprehensive coverage to normalize metrics effectively.  
-DOI: 10.1162/qss_a_00212 - This research focuses on funding data availability in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues, which further challenge the normalization of citation metrics across fields.  
-DOI: 10.1371/journal.pbio.1002542 - The primer discusses the complexities of normalizing citation metrics, including accounting for field differences, publication age, and document types, and stresses the need to carefully consider underlying assumptions in metric calculations.  
-**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from disparities in publication practices, document classification, database coverage, and metadata availability, underscoring the need for standardized approaches and comprehensive data infrastructures to ensure fair and accurate comparisons.</t>
-  </si>
-  <si>
-    <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing metadata availability across databases, and assessing coverage and accuracy of citation links.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect incorrectly assigned articles in bibliographic datasets, exemplified by identifying misaffiliated papers associated with ETH Zurich. The method is versatile and can be applied to various data types, potentially leading to corrections that benefit both data providers and users.  
-DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements in Crossref, highlighting improvements over time but also noting the need for publishers to enhance full openness of bibliographic metadata. This analysis underscores the importance of metadata completeness for error detection and correction.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) reveals differences in document coverage, citation link accuracy, and completeness, emphasizing the need for flexible filters and comprehensive coverage to address errors in datasets.  
-**Concluding Statement:** These methods collectively contribute to improving the quality and reliability of bibliographic datasets by identifying inconsistencies, enhancing metadata completeness, and ensuring accurate data representation across diverse sources.</t>
-  </si>
-  <si>
-    <t>tell me about how RAG works.</t>
+**Concluding Statement:** WoS remains a cornerstone in bibliometric research due to its reliability and comprehensive citation data, but its proprietary nature, cost, and potential biases in coverage underscore the need for complementary open-access alternatives and careful consideration of its limitations in interdisciplinary and non-traditional research contexts.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG improves question answering and information retrieval systems by leveraging external knowledge sources, enhancing multi-hop query handling, and integrating metadata for precise document selection and summarization.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG for multi-hop queries. By selecting relevant documents from various sources, Multi-Meta-RAG significantly enhances performance on the MultiHop-RAG benchmark, addressing the limitations of traditional RAG in handling complex, multi-step questions.  
+DOI: 10.1093/jamia/ocae129 - **RefAI**, a GPT-powered RAG tool, is introduced for biomedical literature recommendation and summarization. It combines external resources like PubMed with a novel ranking algorithm to overcome limitations in real-time search and pretrained models, delivering high-quality, structured summaries and accurate literature recommendations.  
+**Concluding Statement:** RAG’s integration with metadata filtering, external knowledge sources, and advanced ranking algorithms, as demonstrated in Multi-Meta-RAG and RefAI, significantly enhances its effectiveness in complex question answering and information retrieval tasks across domains.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Normalizing citation metrics across scientific fields is challenging due to variations in publication practices, document types, database coverage, and disciplinary differences, which complicate fair comparisons and require careful consideration of normalization methods.  
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of data used for citation metrics across fields.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across databases like OpenAlex, Scopus, and Web of Science, complicating the standardization of citation metrics due to varying classification methods.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows discrepancies in document coverage and citation accuracy across disciplines, underscoring the need for comprehensive and flexible filtering tools to normalize metrics.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref and Scopus, which can skew citation metrics, especially in interdisciplinary research.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, emphasizing the need to account for field-specific differences, publication age, and document types, while cautioning against misapplication of normalization techniques.  
+**Concluding statement:** The main challenges in normalizing citation metrics stem from the heterogeneity of bibliographic data sources, disciplinary variations, and inconsistencies in metadata availability, necessitating careful and context-aware approaches to ensure fair comparisons across scientific fields.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing metadata availability across databases, and evaluating coverage and accuracy of citation links.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect incorrectly assigned articles in bibliographic datasets, exemplified by identifying misaffiliated papers associated with ETH Zurich. The method is versatile and can be applied to various data types, potentially leading to corrections benefiting both data providers and users.  
+DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements in Crossref, highlighting improvements over time but noting that many publishers still need to enhance the openness of bibliographic metadata.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) analyzes differences in document coverage, citation link accuracy, and completeness, emphasizing the need for comprehensive coverage and flexible filtering tools.  
+**Concluding Statement:** These methods collectively address errors in bibliographic datasets by leveraging data patterns, metadata analysis, and comparative evaluations, ultimately improving data quality and reliability for bibliometric research.</t>
   </si>
   <si>
     <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on bibliographic metadata, metadata quality, funding data, citation metrics, and comparisons of bibliographic data sources.
-Since the context does not provide any information related to RAG, I cannot provide an answer to the query.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and PubMed.  
-DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
-DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how sociocultural factors and resource constraints impact metadata consistency and completeness across different communities.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of its analysis of open data availability and challenges.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) assesses document coverage and metadata quality, including the presence and accuracy of abstracts.  
-**Concluding statement:** These studies collectively highlight the importance of abstracts in metadata for discovery and access, while also revealing variations in availability, quality, and classification across different bibliographic databases.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several studies have examined citations, focusing on the comparison of bibliographic databases, the availability of metadata, and the completeness and accuracy of citation links.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
-DOI: 10.31222/osf.io/smxe5 - The research evaluates the availability of bibliographic metadata in Crossref, including reference lists, which are essential for citation analysis, and notes improvements over time but identifies gaps in full openness.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines differences in document coverage and the completeness and accuracy of citation links, providing insights into the strengths and weaknesses of each data source for citation studies.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly addresses citation analysis by exploring the traceability of publications from funding, which is critical for understanding citation patterns in funded research.  
-DOI: 10.5860/crl.86.1.101 - While not directly examining citations, this study on metadata quality identifies issues that can affect the accuracy and reliability of bibliographic data, which is foundational for citation analysis.  
-**Concluding statement:** These studies collectively contribute to understanding the landscape of citation analysis by evaluating the reliability, coverage, and accessibility of bibliographic data across various platforms and metadata elements.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary significantly across databases.  
-DOI: 10.1162/qss_a_00212 - While focusing on funding data in COVID-19 research, this study indirectly supports the importance of open data infrastructures like OpenAlex by critiquing the limited coverage and quality of funding data in proprietary databases like Scopus and Web of Science.  
-**Concluding Statement:** OpenAlex is positioned as a vital open-access resource for academic research, offering comprehensive bibliometric data and serving as a free alternative to established proprietary databases, though its full potential depends on continued improvements in metadata quality and coverage.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality, particularly for funding information, vary and require improvement.  
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open availability of bibliographic metadata, with improvements over time in elements like reference lists, abstracts, and ORCIDs, but many publishers still need to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - Analysis of Crossref’s funding data for COVID-19 research reveals limited coverage and quality issues, with recommendations for improving open availability.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, impacting discovery and access.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights Crossref’s strengths and weaknesses, emphasizing the need for comprehensive coverage and flexible filtering.  
-DOI: 10.48550/arXiv.2406.15154 - Crossref’s publication and document types differ from other databases like OpenAlex, Scopus, and Web of Science, affecting bibliometric analysis.  
-**Concluding Statement:** Crossref plays a vital role in open bibliographic metadata but faces challenges in coverage, data quality, and standardization, requiring collaborative efforts to enhance its utility for scholarly research.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on cross-database comparisons, metadata availability, and quality issues.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
-DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering tools.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on individuals and communities.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the paper compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, with recommendations for improving Crossref’s openness.  
-**Concluding statement:** These studies collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance bibliometric analyses and accessibility.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, especially for journal articles, many publishers still need to enhance full openness of metadata.  
-DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes the availability and quality of funding data in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues, particularly in Scopus, and offers recommendations for improvement.  
-DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, which indirectly impacts the analysis of funding metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, discusses coverage and citation accuracy, providing context for understanding funding metadata availability across platforms.  
-**Concluding Statement:** These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata across major scholarly databases, emphasizing the need for improved openness, standardization, and quality in metadata reporting.</t>
-  </si>
-  <si>
-    <t>Summary answer: One paper discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces Multi-Meta-RAG, a method that enhances RAG for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). This approach significantly improves performance on the MultiHop-RAG benchmark, addressing the limitations of traditional RAG in handling complex, multi-step questions.
-Concluding statement: While only one paper directly addresses the use of RAG in large language models, it provides a novel and effective solution for improving RAG's capabilities in multi-hop query scenarios, highlighting the potential for further research in this area.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship, though challenges remain in achieving full metadata openness.
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on elements like reference lists, abstracts, ORCIDs, and funding information. While availability has improved, especially for journal articles, many publishers still need to enhance metadata openness.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares bibliographic databases, highlighting differences in document classification and typologies. OpenAlex is emphasized as a free alternative for bibliometric analyses, underscoring the need for standardized metadata practices.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is limited, particularly for COVID-19 research, with quality issues noted in proprietary databases like Scopus. Recommendations are provided to improve funding data openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources reveals Crossref’s strengths in coverage and citation accuracy, emphasizing the importance of comprehensive and flexible literature selection tools.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from sociocultural tensions, resource constraints, and standardization challenges, impacting discovery and access, highlighting the need for culturally sensitive metadata practices.  
-**Concluding Statement:** Crossref’s role in the scholarly ecosystem is pivotal for advancing open metadata, though ongoing efforts are required to address gaps in availability, quality, and standardization across publishers and disciplines.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications can differ significantly between OpenAlex and proprietary databases, affecting bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex's reliance on open data sources like Crossref.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in Crossref, revealing limited coverage and quality issues, which may impact OpenAlex's ability to provide comprehensive funding metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights the strengths and weaknesses of various databases, emphasizing the need for comprehensive coverage and flexible filtering, areas where OpenAlex may still need improvement.  
-**Concluding Statement:** OpenAlex offers a valuable open-access alternative for bibliometric research, but its limitations in metadata completeness, consistency, and typological alignment with proprietary databases suggest ongoing development is necessary to enhance its utility.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in disciplinary coverage.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. It also notes that WoS’s proprietary nature contrasts with emerging open alternatives like OpenAlex.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy but may have limitations in coverage, particularly in newer or interdisciplinary fields, compared to more comprehensive or open databases.  
-DOI: 10.1162/qss_a_00212 - This analysis focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding information but is limited by its proprietary access, which restricts broader use and integration with open data infrastructures.  
-**Concluding Statement:** While WoS remains a cornerstone for bibliometric analysis due to its reliability and historical depth, its proprietary nature, cost, and potential gaps in coverage of emerging fields or interdisciplinary research highlight the need for complementary open and flexible data sources.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop query handling, and leveraging metadata for more accurate and relevant document selection.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG for multi-hop queries. By focusing on relevant documents from various sources, Multi-Meta-RAG significantly enhances performance on the MultiHop-RAG benchmark, addressing the limitations of traditional RAG in handling complex, multi-step questions.  
-DOI: 10.1093/jamia/ocae129 - **RefAI** is presented as a GPT-powered RAG tool for biomedical literature recommendation and summarization. It combines external resources like PubMed with a novel ranking algorithm to overcome challenges such as fabricated papers and poor reference integration, demonstrating superior performance in accuracy, comprehensiveness, and relevance compared to baseline models.  
-**Concluding Statement:** RAG’s effectiveness in question answering and information retrieval is enhanced through innovative methods like Multi-Meta-RAG and tools like RefAI, which address specific challenges such as multi-hop queries and domain-specific accuracy, thereby improving overall system performance.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying availability and quality of metadata, which can lead to inconsistent comparisons.  
-DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across databases like OpenAlex, Scopus, and Web of Science, complicating the normalization of citation metrics due to inconsistent classification and coverage.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows variations in document coverage and citation link accuracy, emphasizing the need for comprehensive and flexible filtering to ensure reliable normalization.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref and Scopus, which can skew citation metrics, particularly in interdisciplinary or under-represented fields.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including accounting for field differences, publication age, and document types, and stresses the importance of carefully considering underlying assumptions in metric calculations.  
-**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from disparities in metadata availability, database coverage, and classification practices, as well as the need to account for field-specific publication cultures and document types. Addressing these issues requires standardized metadata practices and careful consideration of the assumptions underlying metric calculations.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing metadata availability across databases, and evaluating coverage and accuracy of citation links.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and lead to corrections benefiting both data providers and users.  
-DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives to improve the open availability of bibliographic metadata in Crossref, showing improvements over time but also identifying the need for publishers to enhance metadata completeness, particularly for elements like reference lists and funding information.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) reveals differences in document coverage, citation accuracy, and completeness, emphasizing the importance of comprehensive coverage and flexible filtering for bibliometric analysis.  
-Concluding statement: These methods collectively address errors in bibliographic datasets by leveraging data patterns, metadata comparisons, and large-scale analyses, ultimately improving data quality and reliability for academic research.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on metadata quality, bibliographic data sources, and citation metrics.
-Since the context does not provide any information about RAG, I cannot provide an answer to the query.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and others.  
-DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
-DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how cultural meanings and community practices influence metadata consistency and completeness.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of broader bibliographic data analysis.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) assesses coverage and accuracy of metadata elements, including abstracts, across disciplines and time.  
-**Concluding Statement:** These studies collectively highlight the importance of abstracts in metadata for discovery and access, while underscoring the variability in their availability, quality, and classification across different bibliographic databases.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations and bibliographic data sources, focusing on coverage, metadata quality, and citation link accuracy.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, CrossRef, and Microsoft Academic examines document coverage, citation link completeness, and accuracy, emphasizing the need for comprehensive coverage and flexible filtering in bibliographic data sources.  
-DOI: 10.31222/osf.io/smxe5 - This research assesses the availability of open bibliographic metadata in CrossRef, noting improvements over time but identifying gaps in publisher efforts to achieve full openness.  
-Concluding statement: These studies collectively underscore the importance of understanding variations in bibliographic data sources and metadata quality for accurate citation analysis and bibliometric research.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary significantly across databases.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses the open availability of bibliographic metadata in Crossref, which is relevant to OpenAlex's mission of promoting open data. It highlights improvements in metadata availability over time but notes that further efforts are needed for full openness.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues. OpenAlex, as an open alternative, could address such gaps by providing more accessible and comprehensive funding information.  
-**Concluding Statement:** OpenAlex is positioned as a vital open-access resource for bibliometric analyses, offering comprehensive coverage and addressing gaps in proprietary databases, though further research is needed to fully evaluate its capabilities and impact.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its data availability and quality vary across elements and require further improvement.  
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. While availability has improved over time, especially for journal articles, many publishers still need to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - Analysis of Crossref's funding data for COVID-19 research reveals limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, highlighting the need for improvements in open funding data availability.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, with interventions sometimes interpreted as political or strategic acts.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in document coverage, citation accuracy, and flexibility for literature selection.  
-DOI: 10.48550/arXiv.2406.15154 - Crossref is compared with other databases like OpenAlex, Scopus, and Web of Science, showing variations in publication and document type classifications, which impact bibliometric analysis.  
-**Concluding Statement:** Crossref plays a vital role in open bibliographic metadata but faces challenges in data completeness, quality, and consistency, requiring ongoing efforts from publishers and stakeholders to enhance its utility.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of coverage, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, Web of Science, and others.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex's coverage and its role as a free alternative for bibliometric analyses.  
-DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation links, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering in bibliographic data sources.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring how sociocultural representations, resource constraints, and standardization impact metadata consistency and completeness, particularly in reflecting cultural meanings.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the paper compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, with recommendations for improving openness in Crossref.  
-**Concluding Statement:** These studies collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance the utility of these resources for research and bibliometric analysis.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and highlights improvements over time while noting the need for publishers to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - The study analyzes funding data availability in Crossref, Scopus, and Web of Science, particularly for COVID-19 research, revealing limited coverage and quality issues, and provides recommendations for improvement.  
-DOI: 10.48550/arXiv.2406.15154 - While primarily comparing publication and document types across databases, this paper indirectly addresses metadata availability, including funding, by highlighting differences in classification and coverage among OpenAlex, Scopus, Web of Science, and others.  
-**Concluding statement:** These papers collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, with Crossref and OpenAlex emerging as key platforms for open metadata initiatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
-DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances Retrieval-Augmented Generation (RAG) for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). The approach addresses the poor performance of traditional RAG in multi-hop question answering by improving the selection of relevant documents from diverse sources. The study demonstrates significant improvements on the MultiHop-RAG benchmark, with the code available for replication.
-DOI: 10.31222/osf.io/smxe5, DOI: 10.48550/arXiv.2406.15154, DOI: 10.18653/v1/D19-1371, and DOI: 10.1162/qss_a_00112 - These papers focus on bibliographic metadata availability, comparisons of bibliographic databases, and pretraining language models for scientific text, respectively, and do not discuss RAG or its applications in large language models.
-**Concluding Statement:** While only one paper directly addresses RAG in the context of large language models, it provides a novel and effective method for improving multi-hop query performance, highlighting the potential of RAG in enhancing LLM capabilities.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship, though challenges remain in achieving full metadata openness.
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on elements like reference lists, abstracts, ORCIDs, and funding information. Analysis shows improved availability over time, particularly for journal articles, but many publishers still need to enhance full openness.  
-DOI: 10.48550/arXiv.2406.15154 - While not directly about Crossref, this study highlights the variability in document classification across databases, emphasizing the need for standardized metadata practices, which Crossref aims to address.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is limited compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve its openness and quality.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, underscores its role in comprehensive scientific literature coverage, though it highlights the need for flexible filters and improved citation accuracy.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, indirectly supporting Crossref’s efforts to standardize and improve metadata consistency and completeness.  
-**Concluding Statement:** Crossref is a vital infrastructure in the scholarly ecosystem, fostering open metadata practices and enhancing research transparency, but ongoing efforts are needed to address gaps in coverage, quality, and publisher participation.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a free bibliometric database offering comprehensive coverage and flexible filtering, but it faces limitations in metadata completeness and consistency compared to proprietary databases.
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications can differ significantly from proprietary databases like Web of Science and Scopus, affecting the distinction between research and non-research texts.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the challenges in achieving full openness of bibliographic metadata, even in initiatives like Crossref. These challenges, such as incomplete metadata elements, are relevant to OpenAlex as it relies on open data sources.  
-Concluding statement: OpenAlex’s key features include its open access nature and broad coverage, making it a valuable tool for bibliometric research. However, its limitations, such as variability in metadata quality and classification inconsistencies, reflect broader issues in open bibliographic data, necessitating careful consideration in comparative analyses.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.
-DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can impact bibliometric analysis. WoS’s proprietary nature and classification methods may limit its flexibility compared to open alternatives like OpenAlex.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy but falls short in coverage of certain document types and disciplines, particularly compared to more comprehensive or open-access databases.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding information but is limited by its proprietary access, which restricts broader use and comparison with open data sources.  
-**Concluding Statement:** While WoS remains a cornerstone for bibliometric analysis due to its reliability and citation depth, its proprietary nature, high cost, and uneven coverage across disciplines and document types present significant limitations, particularly in comparison to emerging open-access alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop query handling, and leveraging metadata for precise document selection, as demonstrated in various studies.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG for multi-hop queries. By selecting relevant documents from multiple sources, Multi-Meta-RAG significantly enhances performance on the MultiHop-RAG benchmark, addressing the limitations of traditional RAG in handling complex, multi-step questions.  
-DOI: 10.1093/jamia/ocae129 - **RefAI**, a GPT-powered RAG tool, is introduced for biomedical literature recommendation and summarization. It combines external resources like PubMed with a novel ranking algorithm to overcome challenges such as fabricated papers and poor reference integration, demonstrating superior performance in accuracy, comprehensiveness, and relevance compared to baseline models.  
-**Concluding Statement:** These studies highlight RAG's effectiveness in improving information retrieval and question answering by integrating external knowledge, optimizing metadata usage, and addressing specific domain challenges, thereby enhancing accuracy and relevance in complex query scenarios.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying classification standards, which hinder consistent comparison and analysis.  
-DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across bibliographic databases like OpenAlex, Scopus, and Web of Science, complicating the normalization of citation metrics due to inconsistent classification standards.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows variations in document coverage and citation link accuracy across disciplines, emphasizing the need for comprehensive and flexible literature selection tools to address normalization challenges.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref and Scopus, underscoring the broader challenge of inconsistent data availability across fields for citation metric normalization.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the complexities of normalizing citation metrics, including differences in scientific fields, publication age, and document types, and stresses the need to carefully consider underlying assumptions in metric calculations.  
-**Concluding statement:** The main challenges in normalizing citation metrics across scientific fields stem from disparities in publication practices, document classification, database coverage, and data quality, which collectively impede consistent and equitable comparisons. Addressing these issues requires standardized metadata practices, improved data openness, and careful consideration of the assumptions underlying citation metrics.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, comparing metadata availability across databases, and analyzing discrepancies in document types and affiliations.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and lead to corrections benefiting both data providers and users.  
-DOI: 10.48550/arXiv.2406.15154 - The research highlights discrepancies in publication and document types across databases like OpenAlex, Scopus, and Web of Science, emphasizing the need for standardized distinctions between research and non-research texts to improve bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of metadata elements in Crossref, noting improvements over time but also identifying gaps, particularly in publisher efforts to ensure full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources reveals variations in document coverage, citation accuracy, and completeness, underscoring the importance of flexible filtering and comprehensive coverage for reliable bibliometric analysis.  
-**Concluding statement:** These methods collectively address error detection and correction in bibliographic datasets by leveraging data patterns, cross-database comparisons, and metadata analysis, ultimately enhancing data quality and reliability for academic research.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and others.  
-DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance full openness of bibliographic metadata.  
-DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how sociocultural factors and resource constraints impact metadata consistency and completeness.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of its analysis of open data availability.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref and Scopus, assesses coverage and accuracy of metadata elements, such as abstracts, across different platforms.  
-**Concluding statement:** These studies collectively highlight the importance of abstracts in metadata, emphasizing their availability, quality, and consistency across various bibliographic databases, while also identifying areas for improvement in metadata openness and standardization.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several studies have examined citations by comparing bibliographic databases, analyzing metadata availability, and assessing citation link completeness and accuracy.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods that impact bibliometric analysis, including the identification of relevant documents for citation studies.  
-DOI: 10.31222/osf.io/smxe5 - The research focuses on the availability of bibliographic metadata in Crossref, including reference lists, which are essential for citation analysis, and notes improvements over time but identifies gaps in publisher efforts toward full openness.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines differences in document coverage and the completeness and accuracy of citation links, providing insights into the strengths and weaknesses of each data source for citation studies.  
-DOI: 10.1162/qss_a_00212 - While primarily focused on funding data, this study compares funding information availability in Crossref, Scopus, and Web of Science, indirectly addressing citation analysis by highlighting data quality issues that affect bibliometric research.  
-DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, which are foundational for accurate citation analysis, by identifying tensions between standardized systems and sociocultural representations that impact metadata consistency and completeness.  
-**Concluding statement:** These studies collectively underscore the importance of understanding bibliographic database differences, metadata availability, and citation link accuracy for robust citation analysis, while also highlighting areas for improvement in data openness and quality.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary significantly across databases.  
-DOI: 10.1162/qss_a_00212 - While focusing on funding data in Crossref, this study indirectly supports the need for open data infrastructures like OpenAlex by identifying limitations in proprietary databases (e.g., Scopus) and advocating for improved metadata availability, which aligns with OpenAlex's open-access mission.  
-**Concluding Statement:** OpenAlex emerges as a vital open-access resource in academic research, addressing gaps in proprietary databases and promoting accessibility in bibliometric analysis, as evidenced by its comparative advantages and the broader push for open metadata initiatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality vary, particularly for funding information, and it faces challenges in achieving full metadata openness compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements (reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information), with improvements over time, especially for journal articles, but many publishers still need to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - Analysis of Crossref's funding data for COVID-19 research reveals limited coverage and quality issues compared to Scopus and Web of Science, highlighting the need for improvements in open funding data availability.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, impacting discovery and access, with interventions sometimes interpreted as political or strategic acts.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in document coverage, citation accuracy, and flexibility, emphasizing the need for comprehensive and adaptable literature selection tools.  
-DOI: 10.48550/arXiv.2406.15154 - Crossref is compared with other databases like OpenAlex, Scopus, and Web of Science, showing variations in publication and document type classifications, which affect bibliometric analysis, with OpenAlex emerging as a free alternative.  
-**Concluding Statement:** While Crossref plays a vital role in advancing open bibliographic metadata, its effectiveness is constrained by gaps in coverage, data quality, and publisher participation, underscoring the need for continued efforts to enhance its utility in scholarly research and analysis.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on cross-database comparisons, metadata availability, and quality issues.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods, which impact bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation accuracy, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering.  
-DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, exploring tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on communities.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the study compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, with recommendations for improvement.  
-**Concluding Statement:** These papers collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance research accessibility and analysis.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and highlights improvements over time but notes the need for further efforts by publishers to ensure full openness.  
-DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study analyzes the availability and quality of funding data in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues, particularly in Scopus.  
-DOI: 10.48550/arXiv.2406.15154 - While primarily comparing publication and document types across databases, this paper indirectly addresses funding metadata by discussing the variability in data classification and availability across platforms like OpenAlex, Scopus, and Web of Science.  
-**Concluding Statement:** These studies collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, with Crossref showing progress but requiring further enhancements, and proprietary databases like Scopus and Web of Science exhibiting limitations in funding data coverage and accuracy.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that enhances RAG for multi-hop queries by using database filtering with metadata extracted by large language models (LLMs). It addresses the limitations of traditional RAG in handling complex, multi-hop questions and demonstrates significant improvements on the MultiHop-RAG benchmark.
-DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, discussing initiatives to promote openness but does not address RAG or large language models.
-DOI: 10.48550/arXiv.2406.15154 - The study compares publication and document types across various bibliographic databases, including OpenAlex and Scopus, but does not discuss RAG or its applications.
-DOI: 10.18653/v1/D19-1371 - This paper introduces **SciBERT**, a pretrained language model for scientific text, but does not mention RAG or its use in large language models.
-DOI: 10.1162/qss_a_00112 - The paper compares large-scale bibliographic data sources like Scopus and Web of Science, focusing on coverage and citation accuracy, without discussing RAG.
-**Concluding Statement:** Among the provided documents, only the paper with DOI 10.48550/arXiv.2406.13213 directly addresses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically for improving multi-hop query performance. The other papers focus on bibliographic metadata, database comparisons, and pretrained language models, but do not discuss RAG.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in research funding and authorship.  
-DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key source of open bibliographic metadata, with initiatives improving the availability of elements like reference lists, abstracts, ORCIDs, and funding information. However, many publishers still need to enhance efforts for full metadata openness.  
-DOI: 10.48550/arXiv.2406.15154 - While this study focuses on comparing bibliographic databases, it underscores the importance of open alternatives like OpenAlex, indirectly emphasizing Crossref’s role in providing open metadata for scholarly analyses.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is analyzed, revealing limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, with recommendations for improvement.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in comprehensive coverage and the need for flexible filters to enhance its utility in scholarly research.  
-DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, emphasizing the importance of standardized metadata systems like Crossref in ensuring discoverability and access across diverse cultural contexts.  
-**Concluding Statement:** Crossref’s role in the scholarly ecosystem is multifaceted, serving as a critical infrastructure for open metadata, research transparency, and interdisciplinary collaboration, though ongoing efforts are needed to address gaps in coverage and quality.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage and flexible filtering, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases, highlighting its growing importance as a free alternative for bibliometric analyses. It notes that OpenAlex’s coverage of publication and document types is extensive but varies significantly from proprietary databases, impacting the distinction between research and non-research texts.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including OpenAlex, emphasizes the importance of comprehensive coverage and flexible filtering. OpenAlex is praised for its inclusivity but lacks the citation link completeness and accuracy found in databases like Scopus and Web of Science.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this study underscores the challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex’s mission as an open database.  
-DOI: 10.1162/qss_a_00212 - This research focuses on funding data availability, revealing limitations in CrossRef that may also apply to OpenAlex, as both rely on open data infrastructures.  
-**Concluding Statement:** OpenAlex’s key features include its open access, broad coverage, and flexibility, making it a valuable tool for bibliometric analysis. However, its limitations in metadata completeness, consistency, and citation accuracy highlight areas for improvement to compete with established proprietary databases.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in discipline representation.
-DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typology differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its established role but is contrasted with OpenAlex, which is gaining importance as a free alternative.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation link accuracy and completeness but may have limitations in coverage over time, across document types, and disciplines, particularly when compared to more comprehensive or open-access databases.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS, Scopus, and CrossRef, showing that WoS provides reliable funding data but is proprietary, limiting accessibility compared to open data infrastructures like CrossRef.  
-**Concluding Statement:** While WoS remains a cornerstone for bibliometric analysis due to its reliability and extensive citation data, its proprietary nature, cost, and variability in coverage across disciplines and document types present challenges, particularly in comparison to emerging open-access alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG improves question answering and information retrieval systems by leveraging external knowledge sources, enhancing multi-hop query handling, and integrating metadata filtering and advanced ranking algorithms.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.1093/jamia/ocae129 - **RefAI** is presented as a GPT-powered RAG tool that combines external resources and a novel ranking algorithm to improve literature recommendation and summarization in biomedicine, outperforming baseline models in accuracy, relevance, and reference integration.  
-DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, addresses the lack of large-scale annotated scientific data, improving performance on tasks like sequence tagging and sentence classification, demonstrating the value of domain-specific pretraining in RAG systems.  
-**Concluding Statement:** These studies collectively highlight how RAG systems can be enhanced through metadata integration, domain-specific models, and advanced algorithms, addressing challenges in multi-hop reasoning, accuracy, and relevance in question answering and information retrieval.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to variations in publication types, database coverage, document classification, and metadata availability, which differ significantly across disciplines and data sources.  
-DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across databases like OpenAlex, Scopus, and Web of Science, complicating the normalization of citation metrics due to inconsistent classification and coverage.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources shows variations in document coverage and citation link accuracy across disciplines, emphasizing the need for comprehensive and flexible literature selection tools.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref and Scopus, which can skew citation metrics, particularly in interdisciplinary research.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including accounting for field differences, publication age, and document types, and stresses the need to carefully consider underlying assumptions in metric calculations.  
-**Concluding Statement:** The main challenges in normalizing citation metrics stem from disparities in metadata availability, document classification, database coverage, and disciplinary practices, underscoring the need for standardized and comprehensive data infrastructures to ensure fair and accurate comparisons across scientific fields.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability, and comparing data sources to identify discrepancies and improve data quality.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by leveraging missing data patterns. Applied to affiliation metadata, the method identifies incorrectly assigned articles, offering a corrective approach that benefits both data providers and users.  
-DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives to enhance the open availability of bibliographic metadata in Crossref, focusing on elements like reference lists and ORCIDs. It notes improvements over time but emphasizes the need for publishers to ensure full metadata openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals differences in coverage, citation accuracy, and document types, underscoring the importance of flexible filtering for literature selection.  
-DOI: 10.1162/qss_a_00212 - This study examines funding data availability in Crossref, Scopus, and Web of Science, particularly for COVID-19 research. It identifies limited coverage and quality issues, offering recommendations to improve open funding data accessibility.  
-**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata completeness, and comparative analysis, ultimately enhancing data reliability and usability for bibliometric research.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, so I cannot provide an answer based on the given documents.
-Since the context does not include any information related to RAG, I am unable to provide a summary or supporting documents on this topic.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several studies have examined the availability and quality of abstracts in metadata across various bibliographic databases, including Crossref, OpenAlex, Scopus, Web of Science, and PubMed.  
-DOI: 10.31222/osf.io/smxe5 - This study analyzes the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time for journal articles, many publishers still need to enhance the openness of bibliographic metadata.  
-DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting differences in how abstracts and other metadata are classified and made available across these platforms.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues, including those related to abstracts, by examining how sociocultural factors and resource constraints impact metadata consistency and completeness.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study indirectly touches on metadata quality, including abstracts, as part of its analysis of open data availability.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref and Scopus, assesses coverage and accuracy of metadata elements, such as abstracts, across different platforms.  
-**Concluding Statement:** These studies collectively highlight the importance of abstracts in metadata and the varying degrees of their availability, quality, and classification across different bibliographic databases, underscoring the need for standardized practices to enhance metadata openness and consistency.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations and bibliographic metadata across various databases, focusing on coverage, accuracy, and openness.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, which impact bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - The research evaluates the availability of bibliographic metadata elements in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of metadata.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines document coverage and citation link accuracy, emphasizing the importance of comprehensive coverage and flexible filtering in bibliometric studies.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, this study compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, particularly in Scopus.  
-Concluding statement: These studies collectively underscore the variability in citation and metadata practices across databases, highlighting the need for standardized approaches and improved openness to enhance bibliometric analysis.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is an emerging open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing importance as a free alternative for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary significantly across databases.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses the open availability of bibliographic metadata in Crossref, which is relevant to OpenAlex's mission of promoting open data. It highlights improvements in metadata availability over time but notes that further efforts are needed for full openness.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues. Such findings underscore the need for open infrastructures like OpenAlex to address gaps in bibliographic data accessibility.  
-**Concluding Statement:** OpenAlex is positioned as a valuable open-access resource for bibliometric analysis, addressing gaps in coverage and accessibility compared to proprietary databases, while also benefiting from advancements in open metadata initiatives like Crossref.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, though its coverage and data quality, particularly for funding information, vary and require improvement.  
-DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six elements: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. While availability has improved over time, especially for journal articles, many publishers still need to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - Analysis of Crossref’s funding data for COVID-19 research reveals limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, with recommendations provided to improve open availability.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are influenced by sociocultural factors, resource constraints, and standardization, highlighting the need for interventions to address cultural and community-specific issues.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, shows variations in document coverage, citation accuracy, and discipline-specific strengths, emphasizing the importance of comprehensive coverage and flexible filtering.  
-DOI: 10.48550/arXiv.2406.15154 - Crossref, alongside other databases, exhibits differences in publication and document type classifications, impacting bibliometric analysis, with OpenAlex emerging as a free alternative for libraries and universities.  
-**Concluding Statement:** Crossref plays a vital role in open scholarly metadata but faces challenges in coverage, data quality, and standardization, necessitating collaborative efforts to enhance its utility and reliability.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on comparisons of coverage, metadata availability, and quality across platforms like OpenAlex, Crossref, Scopus, Web of Science, and others.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting differences in typologies and classification methods across databases, with a focus on OpenAlex’s coverage and its role as a free alternative for bibliometric analyses.  
-DOI: 10.31222/osf.io/smxe5 - The paper examines the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, noting improvements over time but emphasizing the need for publishers to enhance full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes document coverage, citation links, and disciplinary differences, underscoring the importance of comprehensive coverage and flexible filtering in bibliographic data sources.  
-DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, exploring how sociocultural representations, resource constraints, and standardization impact metadata consistency and completeness, particularly in reflecting cultural meanings.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, the paper compares Crossref, Scopus, and Web of Science, revealing limited coverage and quality issues in funding metadata, with recommendations for improving Crossref’s open data availability.  
-**Concluding Statement:** These studies collectively highlight the variability in linguistic coverage and metadata quality across scholarly databases, emphasizing the need for standardized practices and improved openness to enhance research accessibility and analysis.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, Web of Science, and OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and highlights improvements over time while noting the need for publishers to enhance full openness.  
-DOI: 10.1162/qss_a_00212 - The study analyzes funding data availability in Crossref, Scopus, and Web of Science, particularly for COVID-19 research, revealing limited coverage and quality issues, and offers recommendations for improvement.  
-DOI: 10.48550/arXiv.2406.15154 - While primarily comparing publication and document types in OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar, this paper indirectly addresses metadata availability and its variability across databases.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources, including Crossref, Scopus, and Web of Science, discusses metadata coverage and quality, though funding metadata is not the primary focus.  
-**Concluding statement:** These papers collectively underscore the importance of improving funding metadata availability and quality in scholarly databases, with specific attention to Crossref, Scopus, and Web of Science, while also highlighting broader metadata challenges across platforms.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Only one paper in the provided context discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
-DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances Retrieval-Augmented Generation (RAG) for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). The approach addresses the limitations of traditional RAG in handling complex, multi-step questions by improving the selection of relevant documents from diverse sources. The study demonstrates significant performance improvements on the MultiHop-RAG benchmark, with the code available for replication.
-DOI: 10.31222/osf.io/smxe5, DOI: 10.48550/arXiv.2406.15154, DOI: 10.18653/v1/D19-1371, and DOI: 10.1162/qss_a_00112 - These papers focus on bibliographic metadata availability, comparisons of bibliographic databases, and pretraining language models for scientific text, respectively, and do not discuss RAG or its applications in large language models.
-**Concluding Statement:** While the context includes several papers on bibliographic metadata and language models, only one directly addresses RAG in large language models, specifically improving its performance for multi-hop queries.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing discoverability, and supporting transparency in academic publishing.  
-DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key source of open bibliographic metadata, with initiatives improving the availability of elements like reference lists, abstracts, ORCIDs, and funding information. However, many publishers still need to enhance efforts for full metadata openness.  
-DOI: 10.48550/arXiv.2406.15154 - While this study focuses on comparing bibliographic databases, it underscores the importance of open alternatives like OpenAlex, indirectly emphasizing Crossref’s role in providing accessible metadata for scholarly analyses.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability is analyzed, revealing limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, highlighting areas for improvement in metadata transparency.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, emphasizes its importance in comprehensive scientific literature coverage and the need for flexible filtering tools.  
-DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, indirectly supporting Crossref’s role in standardizing and improving metadata consistency across diverse cultural and resource contexts.  
-**Concluding Statement:** Crossref’s efforts to enhance open bibliographic metadata are vital for scholarly communication, though ongoing improvements in coverage, quality, and publisher participation are essential to maximize its impact.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata completeness and consistency compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative for bibliometric analyses, emphasizing its coverage of publication and document types. However, it notes that typologies and classifications can differ significantly between OpenAlex and proprietary databases, affecting bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document underscores the challenges in achieving full openness of bibliographic metadata, which is relevant to OpenAlex's reliance on open data sources like Crossref.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data in Crossref, revealing limited coverage and quality issues, which may impact OpenAlex's ability to provide comprehensive funding information.  
-**Concluding Statement:** OpenAlex offers a valuable open-access resource for bibliometric analysis, particularly in its coverage of diverse document types, but its reliance on open data sources introduces limitations in metadata completeness and consistency, necessitating careful consideration in comparative studies.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and potential biases in disciplinary coverage.
-DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document classification and typologies differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its established position but is critiqued for its proprietary nature and potential limitations in coverage compared to emerging open alternatives like OpenAlex.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with Scopus, Dimensions, CrossRef, and Microsoft Academic reveals that WoS excels in citation completeness and accuracy, particularly for well-established disciplines. However, it is criticized for its limited coverage of newer document types and disciplines, as well as its high cost, which restricts accessibility for smaller institutions.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in WoS compared to Scopus and CrossRef, showing that WoS provides reliable funding information but is limited by its proprietary nature, which hinders open access to such data.  
-**Concluding Statement:** While Web of Science remains a cornerstone in bibliometric research due to its comprehensive citation data and coverage of high-impact journals, its proprietary model, high costs, and potential biases in disciplinary coverage are significant drawbacks, particularly in the context of increasing demand for open and inclusive data sources.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG improves question answering and information retrieval systems by leveraging external knowledge sources, enhancing multi-hop query performance, and integrating metadata filtering and advanced ranking algorithms.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses LLM-extracted metadata and database filtering to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.1093/jamia/ocae129 - **RefAI** is presented as a GPT-powered RAG tool for biomedical literature recommendation and summarization, addressing limitations of existing models by integrating external resources and a novel ranking algorithm, resulting in statistically significant improvements in accuracy, comprehensiveness, and reference integration.  
-DOI: 10.18653/v1/D19-1371 - **SciBERT**, a pretrained language model for scientific text, demonstrates improved performance on downstream NLP tasks by leveraging a large multi-domain corpus of scientific publications, achieving state-of-the-art results in tasks like sequence tagging and dependency parsing.  
-**Concluding Statement:** These studies collectively highlight RAG's potential to enhance information retrieval and question answering by integrating external knowledge, metadata filtering, and advanced algorithms, addressing challenges in multi-hop queries and domain-specific tasks.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, document types, database coverage, and varying classification standards, which hinder consistent comparison and evaluation.  
-DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness, which affects the consistency of citation metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - The analysis reveals significant differences in publication and document types across databases like OpenAlex, Scopus, and Web of Science, complicating the standardization of citation metrics due to varying classification methods.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources underscores disparities in document coverage and citation link accuracy, emphasizing the need for comprehensive and flexible filtering tools to normalize metrics across disciplines.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data, this study identifies limited coverage and quality issues in Crossref, Scopus, and Web of Science, which further complicates the normalization of citation metrics across fields.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges of normalizing citation metrics, including accounting for field differences, publication age, and document types, and stresses the need to carefully consider underlying assumptions in metric calculations.  
-**Concluding Statement:** The main challenges in normalizing citation metrics across scientific fields stem from inconsistent publication practices, varying document classifications, and differences in database coverage, all of which require careful consideration and standardized approaches to ensure fair and meaningful comparisons.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability, and conducting large-scale comparisons of data sources.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by leveraging missing data patterns, exemplified by identifying incorrectly affiliated papers in ETH Zurich’s publication metadata. The method is versatile and can be applied to various data types, potentially leading to corrections that benefit both data providers and users.  
-DOI: 10.31222/osf.io/smxe5 - The research highlights initiatives to enhance the open availability of bibliographic metadata in Crossref, focusing on six key elements (e.g., reference lists, ORCIDs). While availability has improved over time, particularly for journal articles, many publishers still need to address gaps in metadata openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals differences in document coverage, citation accuracy, and discipline-specific strengths and weaknesses, emphasizing the need for comprehensive coverage and flexible filtering tools.  
-**Concluding Statement:** These methods collectively contribute to improving the quality and reliability of bibliographic datasets by identifying errors, enhancing metadata availability, and providing comparative insights into data source performance.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, as the documents focus on bibliographic metadata, citation metrics, and data source comparisons.
 Since the context does not provide any information related to RAG, I cannot provide an answer to the query.</t>
   </si>
 </sst>
@@ -974,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,13 +1051,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0.82222222222222219</v>
@@ -1032,15 +1081,18 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.82222222222222219</v>
@@ -1058,18 +1110,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.73333333333333328</v>
@@ -1087,18 +1142,21 @@
         <v>0.43421052631578949</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0.82222222222222219</v>
@@ -1119,15 +1177,18 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.77777777777777779</v>
@@ -1148,15 +1209,18 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.82222222222222219</v>
@@ -1174,18 +1238,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0.82222222222222219</v>
@@ -1203,18 +1270,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0.8666666666666667</v>
@@ -1235,15 +1305,18 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0.77777777777777779</v>
@@ -1261,18 +1334,21 @@
         <v>0.4375</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>0.82222222222222219</v>
@@ -1293,15 +1369,18 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0.82222222222222219</v>
@@ -1319,18 +1398,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0.91111111111111109</v>
@@ -1351,15 +1433,18 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>0.8666666666666667</v>
@@ -1377,18 +1462,21 @@
         <v>0.66250000000000009</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.77777777777777779</v>
@@ -1409,15 +1497,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0.82222222222222219</v>
@@ -1438,15 +1529,18 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>0.82222222222222219</v>
@@ -1467,15 +1561,18 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0.73333333333333328</v>
@@ -1493,18 +1590,21 @@
         <v>0.43421052631578949</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0.82222222222222219</v>
@@ -1525,15 +1625,18 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>0.77777777777777779</v>
@@ -1554,15 +1657,18 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>0.82222222222222219</v>
@@ -1583,15 +1689,18 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>0.82222222222222219</v>
@@ -1612,15 +1721,18 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>0.8666666666666667</v>
@@ -1641,15 +1753,18 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0.77777777777777779</v>
@@ -1667,18 +1782,21 @@
         <v>0.4375</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>0.82222222222222219</v>
@@ -1696,18 +1814,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>0.82222222222222219</v>
@@ -1725,18 +1846,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>0.91111111111111109</v>
@@ -1757,15 +1881,18 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>0.8666666666666667</v>
@@ -1783,18 +1910,21 @@
         <v>0.66250000000000009</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>0.77777777777777779</v>
@@ -1817,13 +1947,16 @@
       <c r="I29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>0.82222222222222219</v>
@@ -1844,15 +1977,18 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0.82222222222222219</v>
@@ -1873,15 +2009,18 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0.73333333333333328</v>
@@ -1899,18 +2038,21 @@
         <v>0.43421052631578949</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>0.82222222222222219</v>
@@ -1931,15 +2073,18 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>0.77777777777777779</v>
@@ -1960,15 +2105,18 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>0.82222222222222219</v>
@@ -1989,15 +2137,18 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>0.82222222222222219</v>
@@ -2018,15 +2169,18 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>0.8666666666666667</v>
@@ -2047,15 +2201,18 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C38">
         <v>0.77777777777777779</v>
@@ -2073,18 +2230,21 @@
         <v>0.4375</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>0.82222222222222219</v>
@@ -2105,15 +2265,18 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0.82222222222222219</v>
@@ -2131,18 +2294,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>0.91111111111111109</v>
@@ -2163,15 +2329,18 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>0.8666666666666667</v>
@@ -2189,18 +2358,21 @@
         <v>0.66250000000000009</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>0.77777777777777779</v>
@@ -2223,13 +2395,16 @@
       <c r="I43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>0.82222222222222219</v>
@@ -2250,15 +2425,18 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>0.82222222222222219</v>
@@ -2276,18 +2454,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>0.73333333333333328</v>
@@ -2305,18 +2486,21 @@
         <v>0.43421052631578949</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>0.82222222222222219</v>
@@ -2337,15 +2521,18 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0.77777777777777779</v>
@@ -2366,15 +2553,18 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>0.82222222222222219</v>
@@ -2395,15 +2585,18 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>0.82222222222222219</v>
@@ -2424,15 +2617,18 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>0.8666666666666667</v>
@@ -2453,15 +2649,18 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>0.77777777777777779</v>
@@ -2482,15 +2681,18 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>0.82222222222222219</v>
@@ -2511,15 +2713,18 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>0.82222222222222219</v>
@@ -2540,15 +2745,18 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>0.91111111111111109</v>
@@ -2569,15 +2777,18 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>0.8666666666666667</v>
@@ -2595,18 +2806,21 @@
         <v>0.66250000000000009</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>0.77777777777777779</v>
@@ -2627,15 +2841,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>0.82222222222222219</v>
@@ -2656,15 +2873,18 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>0.82222222222222219</v>
@@ -2682,18 +2902,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>0.73333333333333328</v>
@@ -2714,15 +2937,18 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0.82222222222222219</v>
@@ -2743,15 +2969,18 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0.77777777777777779</v>
@@ -2772,15 +3001,18 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0.82222222222222219</v>
@@ -2801,15 +3033,18 @@
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>0.82222222222222219</v>
@@ -2830,15 +3065,18 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>0.8666666666666667</v>
@@ -2859,15 +3097,18 @@
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>0.77777777777777779</v>
@@ -2885,18 +3126,21 @@
         <v>0.4375</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>0.82222222222222219</v>
@@ -2917,15 +3161,18 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C68">
         <v>0.82222222222222219</v>
@@ -2943,18 +3190,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>0.91111111111111109</v>
@@ -2975,15 +3225,18 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>0.8666666666666667</v>
@@ -3004,15 +3257,18 @@
         <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C71">
         <v>0.77777777777777779</v>
@@ -3033,7 +3289,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
